--- a/database/_legacy-data/clubs.xlsx
+++ b/database/_legacy-data/clubs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3720" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="325">
   <si>
     <t>Dritte III</t>
   </si>
@@ -907,6 +907,93 @@
   </si>
   <si>
     <t>NK Croatia 70</t>
+  </si>
+  <si>
+    <t>SSV Erkrath 1919 e.V.</t>
+  </si>
+  <si>
+    <t>SV Eintracht Solingen</t>
+  </si>
+  <si>
+    <t>SV Eintracht</t>
+  </si>
+  <si>
+    <t>Reusrath</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>SC Germania Reusrath 1913 e.V.</t>
+  </si>
+  <si>
+    <t>SV Eintracht Haarbrück-Jakobsberg</t>
+  </si>
+  <si>
+    <t>Haarbrück</t>
+  </si>
+  <si>
+    <t>DJK Sportfreunde Gerresheim 1923 e.V.</t>
+  </si>
+  <si>
+    <t>Sportfr. Gerresheim</t>
+  </si>
+  <si>
+    <t>Spvgg 1904 e.V. Mössingen</t>
+  </si>
+  <si>
+    <t>Mössingen</t>
+  </si>
+  <si>
+    <t>SV 1930 Issum e.V.</t>
+  </si>
+  <si>
+    <t>Issum</t>
+  </si>
+  <si>
+    <t>FSV Gevelsberg e.V.</t>
+  </si>
+  <si>
+    <t>Gevelsberg</t>
+  </si>
+  <si>
+    <t>Verein für Sport und Freizeit von 1975 Düsseldorf-Süd e.V.</t>
+  </si>
+  <si>
+    <t>SFD75</t>
+  </si>
+  <si>
+    <t>Sportring Eller 1892 e.V.</t>
+  </si>
+  <si>
+    <t>Sportring</t>
+  </si>
+  <si>
+    <t>TuS Homberg 1912 e.V.</t>
+  </si>
+  <si>
+    <t>Homberg</t>
+  </si>
+  <si>
+    <t>DJK Sparta Bilk e.V.</t>
+  </si>
+  <si>
+    <t>Sparta Bilk</t>
+  </si>
+  <si>
+    <t>Angermund</t>
+  </si>
+  <si>
+    <t>TV Angermund 1909 e.V.</t>
+  </si>
+  <si>
+    <t>DJK TuSA 06 Düsseldorf e.V.</t>
+  </si>
+  <si>
+    <t>Tusa</t>
   </si>
 </sst>
 </file>
@@ -1751,19 +1838,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -3992,7 +4079,13 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
       <c r="B77" t="s">
+        <v>296</v>
+      </c>
+      <c r="C77" t="s">
         <v>293</v>
       </c>
       <c r="S77">
@@ -4003,13 +4096,252 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
       <c r="B78" t="s">
         <v>294</v>
       </c>
+      <c r="C78" t="s">
+        <v>301</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
       <c r="B79" t="s">
         <v>295</v>
+      </c>
+      <c r="C79" t="s">
+        <v>300</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>297</v>
+      </c>
+      <c r="C80" t="s">
+        <v>298</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" t="s">
+        <v>299</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" t="s">
+        <v>304</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" t="s">
+        <v>306</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>307</v>
+      </c>
+      <c r="C84" t="s">
+        <v>308</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" t="s">
+        <v>310</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" t="s">
+        <v>312</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>313</v>
+      </c>
+      <c r="C87" t="s">
+        <v>314</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" t="s">
+        <v>316</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" t="s">
+        <v>318</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90" t="s">
+        <v>320</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>322</v>
+      </c>
+      <c r="C91" t="s">
+        <v>321</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/database/_legacy-data/clubs.xlsx
+++ b/database/_legacy-data/clubs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="3720" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="333">
   <si>
     <t>Dritte III</t>
   </si>
@@ -994,6 +994,30 @@
   </si>
   <si>
     <t>Tusa</t>
+  </si>
+  <si>
+    <t>DCfR Links 1919 e.V.</t>
+  </si>
+  <si>
+    <t>CfR Links</t>
+  </si>
+  <si>
+    <t>SG Odenbach/Ginsweiler-Cronenberg</t>
+  </si>
+  <si>
+    <t>SG Odenbach</t>
+  </si>
+  <si>
+    <t>SG Düsseldorf-Unterrath 1912/24 e.V.</t>
+  </si>
+  <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>SV Oberreichenbach 1954 e.V.</t>
+  </si>
+  <si>
+    <t>SV Oberreichenbach</t>
   </si>
 </sst>
 </file>
@@ -1838,13 +1862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="S93" sqref="S93:T96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4343,6 +4367,80 @@
       <c r="C92" t="s">
         <v>324</v>
       </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>325</v>
+      </c>
+      <c r="C93" t="s">
+        <v>326</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>327</v>
+      </c>
+      <c r="C94" t="s">
+        <v>328</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>329</v>
+      </c>
+      <c r="C95" t="s">
+        <v>330</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>331</v>
+      </c>
+      <c r="C96" t="s">
+        <v>332</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/database/_legacy-data/clubs.xlsx
+++ b/database/_legacy-data/clubs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="345">
   <si>
     <t>Dritte III</t>
   </si>
@@ -1018,6 +1018,42 @@
   </si>
   <si>
     <t>SV Oberreichenbach</t>
+  </si>
+  <si>
+    <t>SG Benrath Hassels 1910/12 e.V.</t>
+  </si>
+  <si>
+    <t>SG Benr.Hass.</t>
+  </si>
+  <si>
+    <t>SSVg 09/12 Heiligenhaus e.V.</t>
+  </si>
+  <si>
+    <t>SSVG Heiligenhaus</t>
+  </si>
+  <si>
+    <t>TuS Nord</t>
+  </si>
+  <si>
+    <t>TuS Düsseldorf-Nord e.V.</t>
+  </si>
+  <si>
+    <t>SG Kaarst 1912/35 e.V.</t>
+  </si>
+  <si>
+    <t>SG Kaarst</t>
+  </si>
+  <si>
+    <t>FC Tannenhof 1950 e.V.</t>
+  </si>
+  <si>
+    <t>Tannenhof</t>
+  </si>
+  <si>
+    <t>SC Unterbach</t>
+  </si>
+  <si>
+    <t>SC 1920 Unterbach e.V.</t>
   </si>
 </sst>
 </file>
@@ -1862,18 +1898,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S93" sqref="S93:T96"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
@@ -4442,6 +4478,108 @@
         <v>1</v>
       </c>
     </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" t="s">
+        <v>334</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>335</v>
+      </c>
+      <c r="C98" t="s">
+        <v>336</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" t="s">
+        <v>337</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100" t="s">
+        <v>340</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>341</v>
+      </c>
+      <c r="C101" t="s">
+        <v>342</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>344</v>
+      </c>
+      <c r="C102" t="s">
+        <v>343</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/_legacy-data/clubs.xlsx
+++ b/database/_legacy-data/clubs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="349">
   <si>
     <t>Dritte III</t>
   </si>
@@ -1054,6 +1054,18 @@
   </si>
   <si>
     <t>SC 1920 Unterbach e.V.</t>
+  </si>
+  <si>
+    <t>#1860cc</t>
+  </si>
+  <si>
+    <t>#333333</t>
+  </si>
+  <si>
+    <t>#ed0c2e</t>
+  </si>
+  <si>
+    <t>#a84d3d</t>
   </si>
 </sst>
 </file>
@@ -1901,10 +1913,10 @@
   <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,6 +2020,9 @@
         <v>40544</v>
       </c>
       <c r="I2" s="1"/>
+      <c r="J2" t="s">
+        <v>348</v>
+      </c>
       <c r="S2">
         <v>0</v>
       </c>
@@ -2103,6 +2118,9 @@
         <v>36161</v>
       </c>
       <c r="I5" s="1"/>
+      <c r="J5" t="s">
+        <v>346</v>
+      </c>
       <c r="P5" t="s">
         <v>10</v>
       </c>
@@ -2259,6 +2277,9 @@
         <v>36161</v>
       </c>
       <c r="I10" s="1"/>
+      <c r="J10" t="s">
+        <v>346</v>
+      </c>
       <c r="R10" t="s">
         <v>28</v>
       </c>
@@ -3255,6 +3276,9 @@
         <v>40909</v>
       </c>
       <c r="I44" s="1"/>
+      <c r="J44" t="s">
+        <v>346</v>
+      </c>
       <c r="S44">
         <v>0</v>
       </c>
@@ -3340,6 +3364,9 @@
         <v>41275</v>
       </c>
       <c r="I47" s="1"/>
+      <c r="J47" t="s">
+        <v>345</v>
+      </c>
       <c r="S47">
         <v>0</v>
       </c>
@@ -3918,6 +3945,9 @@
         <v>42370</v>
       </c>
       <c r="I68" s="1"/>
+      <c r="J68" t="s">
+        <v>347</v>
+      </c>
       <c r="P68" t="s">
         <v>149</v>
       </c>

--- a/database/_legacy-data/clubs.xlsx
+++ b/database/_legacy-data/clubs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="351">
   <si>
     <t>Dritte III</t>
   </si>
@@ -1066,6 +1066,12 @@
   </si>
   <si>
     <t>#a84d3d</t>
+  </si>
+  <si>
+    <t>#d4bb90</t>
+  </si>
+  <si>
+    <t>#ba2525</t>
   </si>
 </sst>
 </file>
@@ -1913,10 +1919,10 @@
   <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,6 +2255,9 @@
         <v>39814</v>
       </c>
       <c r="I9" s="1"/>
+      <c r="J9" t="s">
+        <v>349</v>
+      </c>
       <c r="P9" t="s">
         <v>25</v>
       </c>
@@ -3456,6 +3465,9 @@
         <v>41275</v>
       </c>
       <c r="I50" s="1"/>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
       <c r="P50" t="s">
         <v>113</v>
       </c>

--- a/database/_legacy-data/clubs.xlsx
+++ b/database/_legacy-data/clubs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="357">
   <si>
     <t>Dritte III</t>
   </si>
@@ -1072,6 +1072,24 @@
   </si>
   <si>
     <t>#ba2525</t>
+  </si>
+  <si>
+    <t>Düsseldorf United</t>
+  </si>
+  <si>
+    <t>DusUnited</t>
+  </si>
+  <si>
+    <t>Zebras Krefeld</t>
+  </si>
+  <si>
+    <t>Zebras</t>
+  </si>
+  <si>
+    <t>DUtd</t>
+  </si>
+  <si>
+    <t>ZK</t>
   </si>
 </sst>
 </file>
@@ -1916,13 +1934,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomRight" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4622,6 +4640,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>351</v>
+      </c>
+      <c r="C103" t="s">
+        <v>352</v>
+      </c>
+      <c r="D103" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" t="s">
+        <v>354</v>
+      </c>
+      <c r="D104" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/_legacy-data/clubs.xlsx
+++ b/database/_legacy-data/clubs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="19545" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="362">
   <si>
     <t>Dritte III</t>
   </si>
@@ -363,741 +363,757 @@
     <t>http://www.hochdahlersv.de.to/</t>
   </si>
   <si>
+    <t>JFE Bilk ev. 2013</t>
+  </si>
+  <si>
+    <t>JFE</t>
+  </si>
+  <si>
+    <t>http://www.flora2.de/jfe-bilk-ev</t>
+  </si>
+  <si>
+    <t>https://de-de.facebook.com/pages/JFE-Bilk-ev/352816478168617</t>
+  </si>
+  <si>
+    <t>Lokomotive Rheinwiese</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>CfR Links AH</t>
+  </si>
+  <si>
+    <t>CFR</t>
+  </si>
+  <si>
+    <t>http://www.bootsmann.info</t>
+  </si>
+  <si>
+    <t>TFC Hennekamp '67</t>
+  </si>
+  <si>
+    <t>TFC</t>
+  </si>
+  <si>
+    <t>FCBHO</t>
+  </si>
+  <si>
+    <t>FCBBW</t>
+  </si>
+  <si>
+    <t>Meldete sich im Okt. 2014 wÃ¤hrend der Saison vom Spielbetrieb ab.</t>
+  </si>
+  <si>
+    <t>FCBAH</t>
+  </si>
+  <si>
+    <t>Papa Kowolls letzter Wille</t>
+  </si>
+  <si>
+    <t>PKLW</t>
+  </si>
+  <si>
+    <t>CD77AH</t>
+  </si>
+  <si>
+    <t>http://www.cosmos77.de</t>
+  </si>
+  <si>
+    <t>DJK Rheinland '05 AH</t>
+  </si>
+  <si>
+    <t>DJKR</t>
+  </si>
+  <si>
+    <t>SWBAH</t>
+  </si>
+  <si>
+    <t>Schlosspark United 04</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>SG Cosmos/Hennekamp</t>
+  </si>
+  <si>
+    <t>SGCH</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Gast im Pokal 2015</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>FFD</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FF-D%C3%BCsseldorf-2015-419387204934832/?fref=ts</t>
+  </si>
+  <si>
+    <t>FC Bootsmann</t>
+  </si>
+  <si>
+    <t>FCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In der AH-Liga vertreten als CfR Links AH. Seit 2016 auch mit einer HLW-Mannschaft. </t>
+  </si>
+  <si>
+    <t>http://bootsmann.info/</t>
+  </si>
+  <si>
+    <t>Monday Kickers</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>A-Team reloaded AH</t>
+  </si>
+  <si>
+    <t>ATAH</t>
+  </si>
+  <si>
+    <t>FIDU</t>
+  </si>
+  <si>
+    <t>Sparta Erkrath</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/spartaerkrath/</t>
+  </si>
+  <si>
+    <t>Superkickers 2016</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>SC Ratingen 2016</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name_short</t>
+  </si>
+  <si>
+    <t>name_code</t>
+  </si>
+  <si>
+    <t>logo_url</t>
+  </si>
+  <si>
+    <t>cover_url</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>league_exit</t>
+  </si>
+  <si>
+    <t>league_entry</t>
+  </si>
+  <si>
+    <t>founded</t>
+  </si>
+  <si>
+    <t>colours_club_primary</t>
+  </si>
+  <si>
+    <t>colours_club_secondary</t>
+  </si>
+  <si>
+    <t>colours_kit_home_primary</t>
+  </si>
+  <si>
+    <t>colours_kit_home_secondary</t>
+  </si>
+  <si>
+    <t>colours_kit_away_primary</t>
+  </si>
+  <si>
+    <t>colours_kit_away_secondary</t>
+  </si>
+  <si>
+    <t>is_real_club</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>Cosmos Düssel '77</t>
+  </si>
+  <si>
+    <t>Schwarz-Weiß Bilk '79</t>
+  </si>
+  <si>
+    <t>SG Garather Füchse '83</t>
+  </si>
+  <si>
+    <t>FC Düsseldorf 2010</t>
+  </si>
+  <si>
+    <t>Fränki's Team</t>
+  </si>
+  <si>
+    <t>Schüssler United</t>
+  </si>
+  <si>
+    <t>1. FC Klähr</t>
+  </si>
+  <si>
+    <t>Southside Düsseldorf</t>
+  </si>
+  <si>
+    <t>Rot-Weiß Eller 1994</t>
+  </si>
+  <si>
+    <t>Rot-Weiß Heerdt</t>
+  </si>
+  <si>
+    <t>Torpedo Jägerklause</t>
+  </si>
+  <si>
+    <t>Rückwärts Kaarst</t>
+  </si>
+  <si>
+    <t>JFC Düsseldorf</t>
+  </si>
+  <si>
+    <t>Die Pirates haben sich Anfang 2016 mangels Spielern aus der HLW zurückgezogen.</t>
+  </si>
+  <si>
+    <t>2011 zog sich Team Postwirtschaft wÃ¤hrend der Saison zurück. Alle Spiele der Saison wurden annulliert. &lt;br/&gt;2012 wagte die Mannschaft einen neuen Versuch in Liga 2.&lt;br/&gt;2013 nimmt Team Postwirtschaft nicht mehr am Spielbetrieb teil.</t>
+  </si>
+  <si>
+    <t>Haben sich zum 01.08.2017 mit sofortiger Wirkung aus dem Spielbetrieb der HLW zurückgezogen.</t>
+  </si>
+  <si>
+    <t>Zog sich Ende 2011 aufgrund von Spielermangel aus der HLW züruck.</t>
+  </si>
+  <si>
+    <t>(J)apan (F)ootball (C)lub Düsseldorf</t>
+  </si>
+  <si>
+    <t>FC Büderich Hobbyelf</t>
+  </si>
+  <si>
+    <t>FC Büderich AH</t>
+  </si>
+  <si>
+    <t>Cosmos Düssel '77 AH</t>
+  </si>
+  <si>
+    <t>Schlosspark hat sich vor Beginn der Saison 2017 vom Spielbetrieb der HLW zurückgezogen.</t>
+  </si>
+  <si>
+    <t>Klümpkes Stockum</t>
+  </si>
+  <si>
+    <t>FF Düsseldorf 2015</t>
+  </si>
+  <si>
+    <t>http://www.ffdüsseldorf.de/</t>
+  </si>
+  <si>
+    <t>Fit In Düsseldorf United</t>
+  </si>
+  <si>
+    <t>Dynamo Düsseldorf</t>
+  </si>
+  <si>
+    <t>H(ochschul) F(ussball) C(lub) Heine '97&lt;br /&gt;&lt;br /&gt;Erfolge außerhalb der HLW:&lt;br/&gt;Bunteliga D:&lt;br/&gt;Pokalsieger 2002 &amp; 2004&lt;br/&gt;F.I. Süd:&lt;br /&gt;Meister 1998 &amp; 1999,&lt;br/&gt; Pokalsieger 1998</t>
+  </si>
+  <si>
+    <t>FC Büderich Blau-Weiß</t>
+  </si>
+  <si>
+    <t>Schwarz-Weiß Bilk '79 AH</t>
+  </si>
+  <si>
+    <t>Altherren-Mannschaft von Schwarz-Weiß Bilk '79</t>
+  </si>
+  <si>
+    <t>Rather Faß (Cocomo Soccer)</t>
+  </si>
+  <si>
+    <t>Dritte</t>
+  </si>
+  <si>
+    <t>Bierfreunde</t>
+  </si>
+  <si>
+    <t>Dynamo</t>
+  </si>
+  <si>
+    <t>United</t>
+  </si>
+  <si>
+    <t>Buga</t>
+  </si>
+  <si>
+    <t>Rakete</t>
+  </si>
+  <si>
+    <t>Cosmos</t>
+  </si>
+  <si>
+    <t>Fränki's</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>Schüssler</t>
+  </si>
+  <si>
+    <t>Torpedo</t>
+  </si>
+  <si>
+    <t>Rückwärts</t>
+  </si>
+  <si>
+    <t>Zenit</t>
+  </si>
+  <si>
+    <t>Eleven</t>
+  </si>
+  <si>
+    <t>Lokomotive</t>
+  </si>
+  <si>
+    <t>Heine</t>
+  </si>
+  <si>
+    <t>Pirates</t>
+  </si>
+  <si>
+    <t>Devils</t>
+  </si>
+  <si>
+    <t>Füchse</t>
+  </si>
+  <si>
+    <t>Boys</t>
+  </si>
+  <si>
+    <t>Weseler</t>
+  </si>
+  <si>
+    <t>Ortmann</t>
+  </si>
+  <si>
+    <t>Mettmann</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Hennekamp</t>
+  </si>
+  <si>
+    <t>Büderich</t>
+  </si>
+  <si>
+    <t>Schlosspark</t>
+  </si>
+  <si>
+    <t>Klümpkes</t>
+  </si>
+  <si>
+    <t>Cocomo</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Superkickers</t>
+  </si>
+  <si>
+    <t>Utd Ratingen</t>
+  </si>
+  <si>
+    <t>Lot jonn</t>
+  </si>
+  <si>
+    <t>Hamm</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>HK Stars</t>
+  </si>
+  <si>
+    <t>Manuele</t>
+  </si>
+  <si>
+    <t>FCD</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FCK</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>FCM</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>WB06</t>
+  </si>
+  <si>
+    <t>SUTD</t>
+  </si>
+  <si>
+    <t>1FCK</t>
+  </si>
+  <si>
+    <t>VFBHS</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Eller</t>
+  </si>
+  <si>
+    <t>Stuben</t>
+  </si>
+  <si>
+    <t>Klähr</t>
+  </si>
+  <si>
+    <t>Heerdt</t>
+  </si>
+  <si>
+    <t>Bruderhaus</t>
+  </si>
+  <si>
+    <t>Brause</t>
+  </si>
+  <si>
+    <t>A-Team</t>
+  </si>
+  <si>
+    <t>Hochdahl</t>
+  </si>
+  <si>
+    <t>Blau-Weiß</t>
+  </si>
+  <si>
+    <t>Hobbyelf</t>
+  </si>
+  <si>
+    <t>Papa Kowoll</t>
+  </si>
+  <si>
+    <t>Cosmos AH</t>
+  </si>
+  <si>
+    <t>Rheinland</t>
+  </si>
+  <si>
+    <t>SWB AH</t>
+  </si>
+  <si>
+    <t>FFD2015</t>
+  </si>
+  <si>
+    <t>Bootsmann</t>
+  </si>
+  <si>
+    <t>A-Team AH</t>
+  </si>
+  <si>
+    <t>Fit In</t>
+  </si>
+  <si>
+    <t>Erkrath</t>
+  </si>
+  <si>
+    <t>Ratingen</t>
+  </si>
+  <si>
+    <t>SSV Erkrath</t>
+  </si>
+  <si>
+    <t>KSC Tesla 07</t>
+  </si>
+  <si>
+    <t>NK Croatia 70</t>
+  </si>
+  <si>
+    <t>SSV Erkrath 1919 e.V.</t>
+  </si>
+  <si>
+    <t>SV Eintracht Solingen</t>
+  </si>
+  <si>
+    <t>SV Eintracht</t>
+  </si>
+  <si>
+    <t>Reusrath</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>SC Germania Reusrath 1913 e.V.</t>
+  </si>
+  <si>
+    <t>SV Eintracht Haarbrück-Jakobsberg</t>
+  </si>
+  <si>
+    <t>Haarbrück</t>
+  </si>
+  <si>
+    <t>DJK Sportfreunde Gerresheim 1923 e.V.</t>
+  </si>
+  <si>
+    <t>Sportfr. Gerresheim</t>
+  </si>
+  <si>
+    <t>Spvgg 1904 e.V. Mössingen</t>
+  </si>
+  <si>
+    <t>Mössingen</t>
+  </si>
+  <si>
+    <t>SV 1930 Issum e.V.</t>
+  </si>
+  <si>
+    <t>Issum</t>
+  </si>
+  <si>
+    <t>FSV Gevelsberg e.V.</t>
+  </si>
+  <si>
+    <t>Gevelsberg</t>
+  </si>
+  <si>
+    <t>Verein für Sport und Freizeit von 1975 Düsseldorf-Süd e.V.</t>
+  </si>
+  <si>
+    <t>SFD75</t>
+  </si>
+  <si>
+    <t>Sportring Eller 1892 e.V.</t>
+  </si>
+  <si>
+    <t>Sportring</t>
+  </si>
+  <si>
+    <t>TuS Homberg 1912 e.V.</t>
+  </si>
+  <si>
+    <t>Homberg</t>
+  </si>
+  <si>
+    <t>DJK Sparta Bilk e.V.</t>
+  </si>
+  <si>
+    <t>Sparta Bilk</t>
+  </si>
+  <si>
+    <t>Angermund</t>
+  </si>
+  <si>
+    <t>TV Angermund 1909 e.V.</t>
+  </si>
+  <si>
+    <t>DJK TuSA 06 Düsseldorf e.V.</t>
+  </si>
+  <si>
+    <t>Tusa</t>
+  </si>
+  <si>
+    <t>DCfR Links 1919 e.V.</t>
+  </si>
+  <si>
+    <t>CfR Links</t>
+  </si>
+  <si>
+    <t>SG Odenbach/Ginsweiler-Cronenberg</t>
+  </si>
+  <si>
+    <t>SG Odenbach</t>
+  </si>
+  <si>
+    <t>SG Düsseldorf-Unterrath 1912/24 e.V.</t>
+  </si>
+  <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>SV Oberreichenbach 1954 e.V.</t>
+  </si>
+  <si>
+    <t>SV Oberreichenbach</t>
+  </si>
+  <si>
+    <t>SG Benrath Hassels 1910/12 e.V.</t>
+  </si>
+  <si>
+    <t>SG Benr.Hass.</t>
+  </si>
+  <si>
+    <t>SSVg 09/12 Heiligenhaus e.V.</t>
+  </si>
+  <si>
+    <t>SSVG Heiligenhaus</t>
+  </si>
+  <si>
+    <t>TuS Nord</t>
+  </si>
+  <si>
+    <t>TuS Düsseldorf-Nord e.V.</t>
+  </si>
+  <si>
+    <t>SG Kaarst 1912/35 e.V.</t>
+  </si>
+  <si>
+    <t>SG Kaarst</t>
+  </si>
+  <si>
+    <t>FC Tannenhof 1950 e.V.</t>
+  </si>
+  <si>
+    <t>Tannenhof</t>
+  </si>
+  <si>
+    <t>SC Unterbach</t>
+  </si>
+  <si>
+    <t>SC 1920 Unterbach e.V.</t>
+  </si>
+  <si>
+    <t>#1860cc</t>
+  </si>
+  <si>
+    <t>#333333</t>
+  </si>
+  <si>
+    <t>#ed0c2e</t>
+  </si>
+  <si>
+    <t>#a84d3d</t>
+  </si>
+  <si>
+    <t>#d4bb90</t>
+  </si>
+  <si>
+    <t>#ba2525</t>
+  </si>
+  <si>
+    <t>Düsseldorf United</t>
+  </si>
+  <si>
+    <t>DusUnited</t>
+  </si>
+  <si>
+    <t>Zebras Krefeld</t>
+  </si>
+  <si>
+    <t>Zebras</t>
+  </si>
+  <si>
+    <t>DUtd</t>
+  </si>
+  <si>
+    <t>ZK</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>Tus Altstars</t>
+  </si>
+  <si>
+    <t>Altstars</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
     <t>Freilos</t>
   </si>
   <si>
-    <t>JFE Bilk ev. 2013</t>
-  </si>
-  <si>
-    <t>JFE</t>
-  </si>
-  <si>
-    <t>http://www.flora2.de/jfe-bilk-ev</t>
-  </si>
-  <si>
-    <t>https://de-de.facebook.com/pages/JFE-Bilk-ev/352816478168617</t>
-  </si>
-  <si>
-    <t>Lokomotive Rheinwiese</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>CfR Links AH</t>
-  </si>
-  <si>
-    <t>CFR</t>
-  </si>
-  <si>
-    <t>http://www.bootsmann.info</t>
-  </si>
-  <si>
-    <t>TFC Hennekamp '67</t>
-  </si>
-  <si>
-    <t>TFC</t>
-  </si>
-  <si>
-    <t>FCBHO</t>
-  </si>
-  <si>
-    <t>FCBBW</t>
-  </si>
-  <si>
-    <t>Meldete sich im Okt. 2014 wÃ¤hrend der Saison vom Spielbetrieb ab.</t>
-  </si>
-  <si>
-    <t>FCBAH</t>
-  </si>
-  <si>
-    <t>Papa Kowolls letzter Wille</t>
-  </si>
-  <si>
-    <t>PKLW</t>
-  </si>
-  <si>
-    <t>CD77AH</t>
-  </si>
-  <si>
-    <t>http://www.cosmos77.de</t>
-  </si>
-  <si>
-    <t>DJK Rheinland '05 AH</t>
-  </si>
-  <si>
-    <t>DJKR</t>
-  </si>
-  <si>
-    <t>SWBAH</t>
-  </si>
-  <si>
-    <t>Schlosspark United 04</t>
-  </si>
-  <si>
-    <t>SU</t>
-  </si>
-  <si>
-    <t>SG Cosmos/Hennekamp</t>
-  </si>
-  <si>
-    <t>SGCH</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Gast im Pokal 2015</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>FFD</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/FF-D%C3%BCsseldorf-2015-419387204934832/?fref=ts</t>
-  </si>
-  <si>
-    <t>FC Bootsmann</t>
-  </si>
-  <si>
-    <t>FCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In der AH-Liga vertreten als CfR Links AH. Seit 2016 auch mit einer HLW-Mannschaft. </t>
-  </si>
-  <si>
-    <t>http://bootsmann.info/</t>
-  </si>
-  <si>
-    <t>Monday Kickers</t>
-  </si>
-  <si>
-    <t>MK</t>
-  </si>
-  <si>
-    <t>MonUnited</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>A-Team reloaded AH</t>
-  </si>
-  <si>
-    <t>ATAH</t>
-  </si>
-  <si>
-    <t>FIDU</t>
-  </si>
-  <si>
-    <t>Sparta Erkrath</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/spartaerkrath/</t>
-  </si>
-  <si>
-    <t>Superkickers 2016</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>SC Ratingen 2016</t>
-  </si>
-  <si>
-    <t>SCR</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>name_short</t>
-  </si>
-  <si>
-    <t>name_code</t>
-  </si>
-  <si>
-    <t>logo_url</t>
-  </si>
-  <si>
-    <t>cover_url</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>league_exit</t>
-  </si>
-  <si>
-    <t>league_entry</t>
-  </si>
-  <si>
-    <t>founded</t>
-  </si>
-  <si>
-    <t>colours_club_primary</t>
-  </si>
-  <si>
-    <t>colours_club_secondary</t>
-  </si>
-  <si>
-    <t>colours_kit_home_primary</t>
-  </si>
-  <si>
-    <t>colours_kit_home_secondary</t>
-  </si>
-  <si>
-    <t>colours_kit_away_primary</t>
-  </si>
-  <si>
-    <t>colours_kit_away_secondary</t>
-  </si>
-  <si>
-    <t>is_real_club</t>
-  </si>
-  <si>
-    <t>published</t>
-  </si>
-  <si>
-    <t>Cosmos Düssel '77</t>
-  </si>
-  <si>
-    <t>Schwarz-Weiß Bilk '79</t>
-  </si>
-  <si>
-    <t>SG Garather Füchse '83</t>
-  </si>
-  <si>
-    <t>FC Düsseldorf 2010</t>
-  </si>
-  <si>
-    <t>Fränki's Team</t>
-  </si>
-  <si>
-    <t>Schüssler United</t>
-  </si>
-  <si>
-    <t>1. FC Klähr</t>
-  </si>
-  <si>
-    <t>Southside Düsseldorf</t>
-  </si>
-  <si>
-    <t>Rot-Weiß Eller 1994</t>
-  </si>
-  <si>
-    <t>Rot-Weiß Heerdt</t>
-  </si>
-  <si>
-    <t>Torpedo Jägerklause</t>
-  </si>
-  <si>
-    <t>Rückwärts Kaarst</t>
-  </si>
-  <si>
-    <t>JFC Düsseldorf</t>
-  </si>
-  <si>
-    <t>Die Pirates haben sich Anfang 2016 mangels Spielern aus der HLW zurückgezogen.</t>
-  </si>
-  <si>
-    <t>2011 zog sich Team Postwirtschaft wÃ¤hrend der Saison zurück. Alle Spiele der Saison wurden annulliert. &lt;br/&gt;2012 wagte die Mannschaft einen neuen Versuch in Liga 2.&lt;br/&gt;2013 nimmt Team Postwirtschaft nicht mehr am Spielbetrieb teil.</t>
-  </si>
-  <si>
-    <t>Haben sich zum 01.08.2017 mit sofortiger Wirkung aus dem Spielbetrieb der HLW zurückgezogen.</t>
-  </si>
-  <si>
-    <t>Zog sich Ende 2011 aufgrund von Spielermangel aus der HLW züruck.</t>
-  </si>
-  <si>
-    <t>(J)apan (F)ootball (C)lub Düsseldorf</t>
-  </si>
-  <si>
-    <t>FC Büderich Hobbyelf</t>
-  </si>
-  <si>
-    <t>FC Büderich AH</t>
-  </si>
-  <si>
-    <t>Cosmos Düssel '77 AH</t>
-  </si>
-  <si>
-    <t>Schlosspark hat sich vor Beginn der Saison 2017 vom Spielbetrieb der HLW zurückgezogen.</t>
-  </si>
-  <si>
-    <t>Klümpkes Stockum</t>
-  </si>
-  <si>
-    <t>FF Düsseldorf 2015</t>
-  </si>
-  <si>
-    <t>http://www.ffdüsseldorf.de/</t>
-  </si>
-  <si>
-    <t>Fit In Düsseldorf United</t>
-  </si>
-  <si>
-    <t>Dynamo Düsseldorf</t>
-  </si>
-  <si>
-    <t>H(ochschul) F(ussball) C(lub) Heine '97&lt;br /&gt;&lt;br /&gt;Erfolge außerhalb der HLW:&lt;br/&gt;Bunteliga D:&lt;br/&gt;Pokalsieger 2002 &amp; 2004&lt;br/&gt;F.I. Süd:&lt;br /&gt;Meister 1998 &amp; 1999,&lt;br/&gt; Pokalsieger 1998</t>
-  </si>
-  <si>
-    <t>FC Büderich Blau-Weiß</t>
-  </si>
-  <si>
-    <t>Schwarz-Weiß Bilk '79 AH</t>
-  </si>
-  <si>
-    <t>Altherren-Mannschaft von Schwarz-Weiß Bilk '79</t>
-  </si>
-  <si>
-    <t>Rather Faß (Cocomo Soccer)</t>
-  </si>
-  <si>
-    <t>Dritte</t>
-  </si>
-  <si>
-    <t>Bierfreunde</t>
-  </si>
-  <si>
-    <t>Dynamo</t>
-  </si>
-  <si>
-    <t>United</t>
-  </si>
-  <si>
-    <t>Buga</t>
-  </si>
-  <si>
-    <t>Rakete</t>
-  </si>
-  <si>
-    <t>Cosmos</t>
-  </si>
-  <si>
-    <t>Fränki's</t>
-  </si>
-  <si>
-    <t>HSC</t>
-  </si>
-  <si>
-    <t>Schüssler</t>
-  </si>
-  <si>
-    <t>Torpedo</t>
-  </si>
-  <si>
-    <t>Rückwärts</t>
-  </si>
-  <si>
-    <t>Zenit</t>
-  </si>
-  <si>
-    <t>Eleven</t>
-  </si>
-  <si>
-    <t>Lokomotive</t>
-  </si>
-  <si>
-    <t>Heine</t>
-  </si>
-  <si>
-    <t>Pirates</t>
-  </si>
-  <si>
-    <t>Devils</t>
-  </si>
-  <si>
-    <t>Füchse</t>
-  </si>
-  <si>
-    <t>Boys</t>
-  </si>
-  <si>
-    <t>Weseler</t>
-  </si>
-  <si>
-    <t>Ortmann</t>
-  </si>
-  <si>
-    <t>Mettmann</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Hennekamp</t>
-  </si>
-  <si>
-    <t>Büderich</t>
-  </si>
-  <si>
-    <t>Schlosspark</t>
-  </si>
-  <si>
-    <t>Klümpkes</t>
-  </si>
-  <si>
-    <t>Cocomo</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Superkickers</t>
-  </si>
-  <si>
-    <t>Utd Ratingen</t>
-  </si>
-  <si>
-    <t>WzWeiß Bilk '</t>
-  </si>
-  <si>
-    <t>D nterbach</t>
-  </si>
-  <si>
-    <t>Lot jonn</t>
-  </si>
-  <si>
-    <t>Hamm</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>HK Stars</t>
-  </si>
-  <si>
-    <t>Manuele</t>
-  </si>
-  <si>
-    <t>FCD</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>FCK</t>
-  </si>
-  <si>
-    <t>FT</t>
-  </si>
-  <si>
-    <t>FCM</t>
-  </si>
-  <si>
-    <t>FCI</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>WP</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>WB06</t>
-  </si>
-  <si>
-    <t>SUTD</t>
-  </si>
-  <si>
-    <t>1FCK</t>
-  </si>
-  <si>
-    <t>VFBHS</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Eller</t>
-  </si>
-  <si>
-    <t>Stuben</t>
-  </si>
-  <si>
-    <t>Klähr</t>
-  </si>
-  <si>
-    <t>Heerdt</t>
-  </si>
-  <si>
-    <t>Bruderhaus</t>
-  </si>
-  <si>
-    <t>Brause</t>
-  </si>
-  <si>
-    <t>A-Team</t>
-  </si>
-  <si>
-    <t>Hochdahl</t>
-  </si>
-  <si>
-    <t>Blau-Weiß</t>
-  </si>
-  <si>
-    <t>Hobbyelf</t>
-  </si>
-  <si>
-    <t>Papa Kowoll</t>
-  </si>
-  <si>
-    <t>Cosmos AH</t>
-  </si>
-  <si>
-    <t>Rheinland</t>
-  </si>
-  <si>
-    <t>SWB AH</t>
-  </si>
-  <si>
-    <t>FFD2015</t>
-  </si>
-  <si>
-    <t>Bootsmann</t>
-  </si>
-  <si>
-    <t>A-Team AH</t>
-  </si>
-  <si>
-    <t>Fit In</t>
-  </si>
-  <si>
-    <t>Erkrath</t>
-  </si>
-  <si>
-    <t>Ratingen</t>
-  </si>
-  <si>
-    <t>SSV Erkrath</t>
-  </si>
-  <si>
-    <t>KSC Tesla 07</t>
-  </si>
-  <si>
-    <t>NK Croatia 70</t>
-  </si>
-  <si>
-    <t>SSV Erkrath 1919 e.V.</t>
-  </si>
-  <si>
-    <t>SV Eintracht Solingen</t>
-  </si>
-  <si>
-    <t>SV Eintracht</t>
-  </si>
-  <si>
-    <t>Reusrath</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Tesla</t>
-  </si>
-  <si>
-    <t>SC Germania Reusrath 1913 e.V.</t>
-  </si>
-  <si>
-    <t>SV Eintracht Haarbrück-Jakobsberg</t>
-  </si>
-  <si>
-    <t>Haarbrück</t>
-  </si>
-  <si>
-    <t>DJK Sportfreunde Gerresheim 1923 e.V.</t>
-  </si>
-  <si>
-    <t>Sportfr. Gerresheim</t>
-  </si>
-  <si>
-    <t>Spvgg 1904 e.V. Mössingen</t>
-  </si>
-  <si>
-    <t>Mössingen</t>
-  </si>
-  <si>
-    <t>SV 1930 Issum e.V.</t>
-  </si>
-  <si>
-    <t>Issum</t>
-  </si>
-  <si>
-    <t>FSV Gevelsberg e.V.</t>
-  </si>
-  <si>
-    <t>Gevelsberg</t>
-  </si>
-  <si>
-    <t>Verein für Sport und Freizeit von 1975 Düsseldorf-Süd e.V.</t>
-  </si>
-  <si>
-    <t>SFD75</t>
-  </si>
-  <si>
-    <t>Sportring Eller 1892 e.V.</t>
-  </si>
-  <si>
-    <t>Sportring</t>
-  </si>
-  <si>
-    <t>TuS Homberg 1912 e.V.</t>
-  </si>
-  <si>
-    <t>Homberg</t>
-  </si>
-  <si>
-    <t>DJK Sparta Bilk e.V.</t>
-  </si>
-  <si>
-    <t>Sparta Bilk</t>
-  </si>
-  <si>
-    <t>Angermund</t>
-  </si>
-  <si>
-    <t>TV Angermund 1909 e.V.</t>
-  </si>
-  <si>
-    <t>DJK TuSA 06 Düsseldorf e.V.</t>
-  </si>
-  <si>
-    <t>Tusa</t>
-  </si>
-  <si>
-    <t>DCfR Links 1919 e.V.</t>
-  </si>
-  <si>
-    <t>CfR Links</t>
-  </si>
-  <si>
-    <t>SG Odenbach/Ginsweiler-Cronenberg</t>
-  </si>
-  <si>
-    <t>SG Odenbach</t>
-  </si>
-  <si>
-    <t>SG Düsseldorf-Unterrath 1912/24 e.V.</t>
-  </si>
-  <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>SV Oberreichenbach 1954 e.V.</t>
-  </si>
-  <si>
-    <t>SV Oberreichenbach</t>
-  </si>
-  <si>
-    <t>SG Benrath Hassels 1910/12 e.V.</t>
-  </si>
-  <si>
-    <t>SG Benr.Hass.</t>
-  </si>
-  <si>
-    <t>SSVg 09/12 Heiligenhaus e.V.</t>
-  </si>
-  <si>
-    <t>SSVG Heiligenhaus</t>
-  </si>
-  <si>
-    <t>TuS Nord</t>
-  </si>
-  <si>
-    <t>TuS Düsseldorf-Nord e.V.</t>
-  </si>
-  <si>
-    <t>SG Kaarst 1912/35 e.V.</t>
-  </si>
-  <si>
-    <t>SG Kaarst</t>
-  </si>
-  <si>
-    <t>FC Tannenhof 1950 e.V.</t>
-  </si>
-  <si>
-    <t>Tannenhof</t>
-  </si>
-  <si>
-    <t>SC Unterbach</t>
-  </si>
-  <si>
-    <t>SC 1920 Unterbach e.V.</t>
-  </si>
-  <si>
-    <t>#1860cc</t>
-  </si>
-  <si>
-    <t>#333333</t>
-  </si>
-  <si>
-    <t>#ed0c2e</t>
-  </si>
-  <si>
-    <t>#a84d3d</t>
-  </si>
-  <si>
-    <t>#d4bb90</t>
-  </si>
-  <si>
-    <t>#ba2525</t>
-  </si>
-  <si>
-    <t>Düsseldorf United</t>
-  </si>
-  <si>
-    <t>DusUnited</t>
-  </si>
-  <si>
-    <t>Zebras Krefeld</t>
-  </si>
-  <si>
-    <t>Zebras</t>
-  </si>
-  <si>
-    <t>DUtd</t>
-  </si>
-  <si>
-    <t>ZK</t>
+    <t>Spielte in der Saison 2016 und 2017 unter dem Namen "MonUnited".</t>
+  </si>
+  <si>
+    <t>SW Bilk</t>
+  </si>
+  <si>
+    <t>Unterbach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1576,9 +1592,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1934,13 +1951,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D105" sqref="D105"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,71 +1979,78 @@
     <col min="16" max="16" width="13.85546875" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" customWidth="1"/>
     <col min="18" max="18" width="32.5703125" customWidth="1"/>
+    <col min="21" max="22" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>180</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>181</v>
       </c>
-      <c r="O1" t="s">
-        <v>182</v>
-      </c>
-      <c r="P1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>173</v>
-      </c>
-      <c r="R1" t="s">
-        <v>171</v>
-      </c>
-      <c r="S1" t="s">
-        <v>183</v>
-      </c>
-      <c r="T1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>353</v>
+      </c>
+      <c r="V1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2034,18 +2058,52 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="E2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H2" s="1">
         <v>40544</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="J2" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="K2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L2" t="s">
+        <v>352</v>
+      </c>
+      <c r="M2" t="s">
+        <v>352</v>
+      </c>
+      <c r="N2" t="s">
+        <v>352</v>
+      </c>
+      <c r="O2" t="s">
+        <v>352</v>
+      </c>
+      <c r="P2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>352</v>
+      </c>
+      <c r="R2" t="s">
+        <v>352</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -2053,8 +2111,16 @@
       <c r="T2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="2">
+        <f ca="1">NOW()</f>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V2" s="2">
+        <f ca="1">NOW()</f>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2062,20 +2128,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" t="s">
+        <v>352</v>
+      </c>
       <c r="G3" s="1">
         <v>35727</v>
       </c>
       <c r="H3" s="1">
         <v>37987</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K3" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" t="s">
+        <v>352</v>
+      </c>
+      <c r="M3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N3" t="s">
+        <v>352</v>
+      </c>
+      <c r="O3" t="s">
+        <v>352</v>
+      </c>
+      <c r="P3" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>352</v>
+      </c>
       <c r="R3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2083,8 +2181,16 @@
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:V66" ca="1" si="0">NOW()</f>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2092,11 +2198,17 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" t="s">
+        <v>352</v>
+      </c>
       <c r="G4" s="1">
         <v>38700</v>
       </c>
@@ -2104,7 +2216,25 @@
         <v>40179</v>
       </c>
       <c r="I4" s="1">
-        <v>42369</v>
+        <v>42265</v>
+      </c>
+      <c r="J4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K4" t="s">
+        <v>352</v>
+      </c>
+      <c r="L4" t="s">
+        <v>352</v>
+      </c>
+      <c r="M4" t="s">
+        <v>352</v>
+      </c>
+      <c r="N4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O4" t="s">
+        <v>352</v>
       </c>
       <c r="P4" t="s">
         <v>7</v>
@@ -2121,29 +2251,60 @@
       <c r="T4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
+      <c r="E5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" t="s">
+        <v>352</v>
+      </c>
       <c r="G5" s="1">
         <v>29184</v>
       </c>
       <c r="H5" s="1">
         <v>36161</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="J5" t="s">
-        <v>346</v>
+        <v>341</v>
+      </c>
+      <c r="K5" t="s">
+        <v>352</v>
+      </c>
+      <c r="L5" t="s">
+        <v>352</v>
+      </c>
+      <c r="M5" t="s">
+        <v>352</v>
+      </c>
+      <c r="N5" t="s">
+        <v>352</v>
+      </c>
+      <c r="O5" t="s">
+        <v>352</v>
       </c>
       <c r="P5" t="s">
         <v>10</v>
@@ -2151,14 +2312,25 @@
       <c r="Q5" t="s">
         <v>11</v>
       </c>
+      <c r="R5" t="s">
+        <v>352</v>
+      </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2166,21 +2338,50 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="E6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H6" s="1">
         <v>39448</v>
       </c>
       <c r="I6" s="1">
         <v>41639</v>
       </c>
+      <c r="J6" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" t="s">
+        <v>352</v>
+      </c>
+      <c r="L6" t="s">
+        <v>352</v>
+      </c>
+      <c r="M6" t="s">
+        <v>352</v>
+      </c>
+      <c r="N6" t="s">
+        <v>352</v>
+      </c>
+      <c r="O6" t="s">
+        <v>352</v>
+      </c>
       <c r="P6" t="s">
         <v>15</v>
       </c>
+      <c r="Q6" t="s">
+        <v>352</v>
+      </c>
       <c r="R6" t="s">
         <v>14</v>
       </c>
@@ -2190,8 +2391,16 @@
       <c r="T6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2199,30 +2408,69 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="E7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H7" s="1">
         <v>40544</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>42735</v>
+      </c>
+      <c r="J7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M7" t="s">
+        <v>352</v>
+      </c>
+      <c r="N7" t="s">
+        <v>352</v>
+      </c>
+      <c r="O7" t="s">
+        <v>352</v>
+      </c>
       <c r="P7" t="s">
         <v>18</v>
       </c>
       <c r="Q7" t="s">
         <v>19</v>
       </c>
+      <c r="R7" t="s">
+        <v>352</v>
+      </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2230,23 +2478,52 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="E8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H8" s="1">
         <v>40179</v>
       </c>
       <c r="I8" s="1">
         <v>42735</v>
       </c>
+      <c r="J8" t="s">
+        <v>352</v>
+      </c>
+      <c r="K8" t="s">
+        <v>352</v>
+      </c>
+      <c r="L8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M8" t="s">
+        <v>352</v>
+      </c>
+      <c r="N8" t="s">
+        <v>352</v>
+      </c>
+      <c r="O8" t="s">
+        <v>352</v>
+      </c>
+      <c r="P8" t="s">
+        <v>352</v>
+      </c>
       <c r="Q8" t="s">
         <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2254,8 +2531,16 @@
       <c r="T8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2263,30 +2548,69 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="E9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H9" s="1">
         <v>39814</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="J9" t="s">
-        <v>349</v>
+        <v>344</v>
+      </c>
+      <c r="K9" t="s">
+        <v>352</v>
+      </c>
+      <c r="L9" t="s">
+        <v>352</v>
+      </c>
+      <c r="M9" t="s">
+        <v>352</v>
+      </c>
+      <c r="N9" t="s">
+        <v>352</v>
+      </c>
+      <c r="O9" t="s">
+        <v>352</v>
       </c>
       <c r="P9" t="s">
         <v>25</v>
       </c>
+      <c r="Q9" t="s">
+        <v>352</v>
+      </c>
+      <c r="R9" t="s">
+        <v>352</v>
+      </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2294,18 +2618,49 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="E10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H10" s="1">
         <v>36161</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="J10" t="s">
-        <v>346</v>
+        <v>341</v>
+      </c>
+      <c r="K10" t="s">
+        <v>352</v>
+      </c>
+      <c r="L10" t="s">
+        <v>352</v>
+      </c>
+      <c r="M10" t="s">
+        <v>352</v>
+      </c>
+      <c r="N10" t="s">
+        <v>352</v>
+      </c>
+      <c r="O10" t="s">
+        <v>352</v>
+      </c>
+      <c r="P10" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>352</v>
       </c>
       <c r="R10" t="s">
         <v>28</v>
@@ -2316,8 +2671,16 @@
       <c r="T10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2325,32 +2688,69 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="E11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H11" s="1">
         <v>40544</v>
       </c>
       <c r="I11" s="1">
         <v>42369</v>
       </c>
+      <c r="J11" t="s">
+        <v>352</v>
+      </c>
+      <c r="K11" t="s">
+        <v>352</v>
+      </c>
+      <c r="L11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M11" t="s">
+        <v>352</v>
+      </c>
+      <c r="N11" t="s">
+        <v>352</v>
+      </c>
+      <c r="O11" t="s">
+        <v>352</v>
+      </c>
       <c r="P11" t="s">
         <v>31</v>
       </c>
       <c r="Q11" t="s">
         <v>32</v>
       </c>
+      <c r="R11" t="s">
+        <v>352</v>
+      </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2363,6 +2763,12 @@
       <c r="D12" t="s">
         <v>34</v>
       </c>
+      <c r="E12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F12" t="s">
+        <v>352</v>
+      </c>
       <c r="G12" s="1">
         <v>31584</v>
       </c>
@@ -2370,19 +2776,51 @@
         <v>35065</v>
       </c>
       <c r="I12" s="1">
-        <v>42004</v>
+        <v>41893</v>
+      </c>
+      <c r="J12" t="s">
+        <v>352</v>
+      </c>
+      <c r="K12" t="s">
+        <v>352</v>
+      </c>
+      <c r="L12" t="s">
+        <v>352</v>
+      </c>
+      <c r="M12" t="s">
+        <v>352</v>
+      </c>
+      <c r="N12" t="s">
+        <v>352</v>
+      </c>
+      <c r="O12" t="s">
+        <v>352</v>
       </c>
       <c r="P12" t="s">
         <v>35</v>
       </c>
+      <c r="Q12" t="s">
+        <v>352</v>
+      </c>
+      <c r="R12" t="s">
+        <v>352</v>
+      </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2390,26 +2828,69 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
+      <c r="E13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" t="s">
+        <v>352</v>
+      </c>
       <c r="G13" s="1">
         <v>39397</v>
       </c>
       <c r="H13" s="1">
         <v>39448</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" t="s">
+        <v>352</v>
+      </c>
+      <c r="K13" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" t="s">
+        <v>352</v>
+      </c>
+      <c r="M13" t="s">
+        <v>352</v>
+      </c>
+      <c r="N13" t="s">
+        <v>352</v>
+      </c>
+      <c r="O13" t="s">
+        <v>352</v>
+      </c>
+      <c r="P13" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>352</v>
+      </c>
+      <c r="R13" t="s">
+        <v>352</v>
+      </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2417,23 +2898,52 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="E14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H14" s="1">
         <v>38353</v>
       </c>
       <c r="I14" s="1">
         <v>41274</v>
       </c>
+      <c r="J14" t="s">
+        <v>352</v>
+      </c>
+      <c r="K14" t="s">
+        <v>352</v>
+      </c>
+      <c r="L14" t="s">
+        <v>352</v>
+      </c>
+      <c r="M14" t="s">
+        <v>352</v>
+      </c>
+      <c r="N14" t="s">
+        <v>352</v>
+      </c>
+      <c r="O14" t="s">
+        <v>352</v>
+      </c>
       <c r="P14" t="s">
         <v>40</v>
       </c>
+      <c r="Q14" t="s">
+        <v>352</v>
+      </c>
       <c r="R14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2441,8 +2951,16 @@
       <c r="T14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2450,11 +2968,17 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
       </c>
+      <c r="E15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F15" t="s">
+        <v>352</v>
+      </c>
       <c r="G15" s="1">
         <v>37257</v>
       </c>
@@ -2464,11 +2988,32 @@
       <c r="I15" s="1">
         <v>43100</v>
       </c>
+      <c r="J15" t="s">
+        <v>352</v>
+      </c>
+      <c r="K15" t="s">
+        <v>352</v>
+      </c>
+      <c r="L15" t="s">
+        <v>352</v>
+      </c>
+      <c r="M15" t="s">
+        <v>352</v>
+      </c>
+      <c r="N15" t="s">
+        <v>352</v>
+      </c>
+      <c r="O15" t="s">
+        <v>352</v>
+      </c>
       <c r="P15" t="s">
         <v>43</v>
       </c>
+      <c r="Q15" t="s">
+        <v>352</v>
+      </c>
       <c r="R15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2476,8 +3021,16 @@
       <c r="T15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2485,61 +3038,139 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="E16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H16" s="1">
         <v>40909</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J16" t="s">
+        <v>352</v>
+      </c>
+      <c r="K16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L16" t="s">
+        <v>352</v>
+      </c>
+      <c r="M16" t="s">
+        <v>352</v>
+      </c>
+      <c r="N16" t="s">
+        <v>352</v>
+      </c>
+      <c r="O16" t="s">
+        <v>352</v>
+      </c>
       <c r="P16" t="s">
         <v>46</v>
       </c>
       <c r="Q16" t="s">
         <v>47</v>
       </c>
+      <c r="R16" t="s">
+        <v>352</v>
+      </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="E17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" t="s">
+        <v>352</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H17" s="1">
         <v>34700</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J17" t="s">
+        <v>352</v>
+      </c>
+      <c r="K17" t="s">
+        <v>352</v>
+      </c>
+      <c r="L17" t="s">
+        <v>352</v>
+      </c>
+      <c r="M17" t="s">
+        <v>352</v>
+      </c>
+      <c r="N17" t="s">
+        <v>352</v>
+      </c>
+      <c r="O17" t="s">
+        <v>352</v>
+      </c>
       <c r="P17" t="s">
         <v>49</v>
       </c>
       <c r="Q17" t="s">
         <v>50</v>
       </c>
+      <c r="R17" t="s">
+        <v>352</v>
+      </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2547,27 +3178,69 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="E18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H18" s="1">
         <v>40909</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J18" t="s">
+        <v>352</v>
+      </c>
+      <c r="K18" t="s">
+        <v>352</v>
+      </c>
+      <c r="L18" t="s">
+        <v>352</v>
+      </c>
+      <c r="M18" t="s">
+        <v>352</v>
+      </c>
+      <c r="N18" t="s">
+        <v>352</v>
+      </c>
+      <c r="O18" t="s">
+        <v>352</v>
+      </c>
       <c r="P18" t="s">
         <v>52</v>
       </c>
+      <c r="Q18" t="s">
+        <v>352</v>
+      </c>
+      <c r="R18" t="s">
+        <v>352</v>
+      </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2575,18 +3248,47 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="E19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F19" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H19" s="1">
         <v>40909</v>
       </c>
       <c r="I19" s="1">
         <v>42369</v>
       </c>
+      <c r="J19" t="s">
+        <v>352</v>
+      </c>
+      <c r="K19" t="s">
+        <v>352</v>
+      </c>
+      <c r="L19" t="s">
+        <v>352</v>
+      </c>
+      <c r="M19" t="s">
+        <v>352</v>
+      </c>
+      <c r="N19" t="s">
+        <v>352</v>
+      </c>
+      <c r="O19" t="s">
+        <v>352</v>
+      </c>
+      <c r="P19" t="s">
+        <v>352</v>
+      </c>
       <c r="Q19" t="s">
         <v>56</v>
       </c>
@@ -2599,20 +3301,34 @@
       <c r="T19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
       </c>
+      <c r="E20" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" t="s">
+        <v>352</v>
+      </c>
       <c r="G20" s="1">
         <v>30317</v>
       </c>
@@ -2622,14 +3338,49 @@
       <c r="I20" s="1">
         <v>42004</v>
       </c>
+      <c r="J20" t="s">
+        <v>352</v>
+      </c>
+      <c r="K20" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20" t="s">
+        <v>352</v>
+      </c>
+      <c r="M20" t="s">
+        <v>352</v>
+      </c>
+      <c r="N20" t="s">
+        <v>352</v>
+      </c>
+      <c r="O20" t="s">
+        <v>352</v>
+      </c>
+      <c r="P20" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>352</v>
+      </c>
+      <c r="R20" t="s">
+        <v>352</v>
+      </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2640,50 +3391,136 @@
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="E21" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21" t="s">
+        <v>352</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H21" s="1">
         <v>35065</v>
       </c>
       <c r="I21" s="1">
         <v>38717</v>
       </c>
+      <c r="J21" t="s">
+        <v>352</v>
+      </c>
+      <c r="K21" t="s">
+        <v>352</v>
+      </c>
+      <c r="L21" t="s">
+        <v>352</v>
+      </c>
+      <c r="M21" t="s">
+        <v>352</v>
+      </c>
+      <c r="N21" t="s">
+        <v>352</v>
+      </c>
+      <c r="O21" t="s">
+        <v>352</v>
+      </c>
+      <c r="P21" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>352</v>
+      </c>
+      <c r="R21" t="s">
+        <v>352</v>
+      </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="E22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" t="s">
+        <v>352</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H22" s="1">
         <v>35065</v>
       </c>
       <c r="I22" s="1">
         <v>37986</v>
       </c>
+      <c r="J22" t="s">
+        <v>352</v>
+      </c>
+      <c r="K22" t="s">
+        <v>352</v>
+      </c>
+      <c r="L22" t="s">
+        <v>352</v>
+      </c>
+      <c r="M22" t="s">
+        <v>352</v>
+      </c>
+      <c r="N22" t="s">
+        <v>352</v>
+      </c>
+      <c r="O22" t="s">
+        <v>352</v>
+      </c>
+      <c r="P22" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>352</v>
+      </c>
+      <c r="R22" t="s">
+        <v>352</v>
+      </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -2694,15 +3531,47 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>225</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="E23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" t="s">
+        <v>352</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H23" s="1">
         <v>35796</v>
       </c>
       <c r="I23" s="1">
         <v>39447</v>
       </c>
+      <c r="J23" t="s">
+        <v>352</v>
+      </c>
+      <c r="K23" t="s">
+        <v>352</v>
+      </c>
+      <c r="L23" t="s">
+        <v>352</v>
+      </c>
+      <c r="M23" t="s">
+        <v>352</v>
+      </c>
+      <c r="N23" t="s">
+        <v>352</v>
+      </c>
+      <c r="O23" t="s">
+        <v>352</v>
+      </c>
+      <c r="P23" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>352</v>
+      </c>
       <c r="R23" t="s">
         <v>62</v>
       </c>
@@ -2712,8 +3581,16 @@
       <c r="T23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -2721,41 +3598,114 @@
         <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H24" s="1">
         <v>35065</v>
       </c>
       <c r="I24" s="1">
         <v>35795</v>
       </c>
+      <c r="J24" t="s">
+        <v>352</v>
+      </c>
+      <c r="K24" t="s">
+        <v>352</v>
+      </c>
+      <c r="L24" t="s">
+        <v>352</v>
+      </c>
+      <c r="M24" t="s">
+        <v>352</v>
+      </c>
+      <c r="N24" t="s">
+        <v>352</v>
+      </c>
+      <c r="O24" t="s">
+        <v>352</v>
+      </c>
+      <c r="P24" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>352</v>
+      </c>
+      <c r="R24" t="s">
+        <v>352</v>
+      </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s">
-        <v>257</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="E25" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25" t="s">
+        <v>352</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J25" t="s">
+        <v>352</v>
+      </c>
+      <c r="K25" t="s">
+        <v>352</v>
+      </c>
+      <c r="L25" t="s">
+        <v>352</v>
+      </c>
+      <c r="M25" t="s">
+        <v>352</v>
+      </c>
+      <c r="N25" t="s">
+        <v>352</v>
+      </c>
+      <c r="O25" t="s">
+        <v>352</v>
+      </c>
       <c r="P25" t="s">
         <v>65</v>
       </c>
@@ -2771,8 +3721,16 @@
       <c r="T25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2780,10 +3738,16 @@
         <v>67</v>
       </c>
       <c r="C26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" t="s">
         <v>258</v>
       </c>
-      <c r="D26" t="s">
-        <v>263</v>
+      <c r="E26" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" t="s">
+        <v>352</v>
       </c>
       <c r="G26" s="1">
         <v>37257</v>
@@ -2794,9 +3758,30 @@
       <c r="I26" s="1">
         <v>39082</v>
       </c>
+      <c r="J26" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" t="s">
+        <v>352</v>
+      </c>
+      <c r="L26" t="s">
+        <v>352</v>
+      </c>
+      <c r="M26" t="s">
+        <v>352</v>
+      </c>
+      <c r="N26" t="s">
+        <v>352</v>
+      </c>
+      <c r="O26" t="s">
+        <v>352</v>
+      </c>
       <c r="P26" t="s">
         <v>69</v>
       </c>
+      <c r="Q26" t="s">
+        <v>352</v>
+      </c>
       <c r="R26" t="s">
         <v>68</v>
       </c>
@@ -2806,8 +3791,16 @@
       <c r="T26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -2818,19 +3811,66 @@
         <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="E27" t="s">
+        <v>352</v>
+      </c>
+      <c r="F27" t="s">
+        <v>352</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J27" t="s">
+        <v>352</v>
+      </c>
+      <c r="K27" t="s">
+        <v>352</v>
+      </c>
+      <c r="L27" t="s">
+        <v>352</v>
+      </c>
+      <c r="M27" t="s">
+        <v>352</v>
+      </c>
+      <c r="N27" t="s">
+        <v>352</v>
+      </c>
+      <c r="O27" t="s">
+        <v>352</v>
+      </c>
+      <c r="P27" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>352</v>
+      </c>
+      <c r="R27" t="s">
+        <v>352</v>
+      </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -2841,23 +3881,66 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="E28" t="s">
+        <v>352</v>
+      </c>
+      <c r="F28" t="s">
+        <v>352</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H28" s="1">
         <v>34700</v>
       </c>
       <c r="I28" s="1">
         <v>36891</v>
       </c>
+      <c r="J28" t="s">
+        <v>352</v>
+      </c>
+      <c r="K28" t="s">
+        <v>352</v>
+      </c>
+      <c r="L28" t="s">
+        <v>352</v>
+      </c>
+      <c r="M28" t="s">
+        <v>352</v>
+      </c>
+      <c r="N28" t="s">
+        <v>352</v>
+      </c>
+      <c r="O28" t="s">
+        <v>352</v>
+      </c>
+      <c r="P28" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>352</v>
+      </c>
+      <c r="R28" t="s">
+        <v>352</v>
+      </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -2868,20 +3951,49 @@
         <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="E29" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29" t="s">
+        <v>352</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H29" s="1">
         <v>34700</v>
       </c>
       <c r="I29" s="1">
         <v>40543</v>
       </c>
+      <c r="J29" t="s">
+        <v>352</v>
+      </c>
+      <c r="K29" t="s">
+        <v>352</v>
+      </c>
+      <c r="L29" t="s">
+        <v>352</v>
+      </c>
+      <c r="M29" t="s">
+        <v>352</v>
+      </c>
+      <c r="N29" t="s">
+        <v>352</v>
+      </c>
+      <c r="O29" t="s">
+        <v>352</v>
+      </c>
+      <c r="P29" t="s">
+        <v>352</v>
+      </c>
       <c r="Q29" t="s">
         <v>75</v>
       </c>
       <c r="R29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2889,8 +4001,16 @@
       <c r="T29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -2898,10 +4018,16 @@
         <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="E30" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" t="s">
+        <v>352</v>
       </c>
       <c r="G30" s="1">
         <v>38718</v>
@@ -2912,60 +4038,170 @@
       <c r="I30" s="1">
         <v>40178</v>
       </c>
+      <c r="J30" t="s">
+        <v>352</v>
+      </c>
+      <c r="K30" t="s">
+        <v>352</v>
+      </c>
+      <c r="L30" t="s">
+        <v>352</v>
+      </c>
+      <c r="M30" t="s">
+        <v>352</v>
+      </c>
+      <c r="N30" t="s">
+        <v>352</v>
+      </c>
+      <c r="O30" t="s">
+        <v>352</v>
+      </c>
+      <c r="P30" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>352</v>
+      </c>
+      <c r="R30" t="s">
+        <v>352</v>
+      </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="E31" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" t="s">
+        <v>352</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H31" s="1">
         <v>39083</v>
       </c>
       <c r="I31" s="1">
         <v>39447</v>
       </c>
+      <c r="J31" t="s">
+        <v>352</v>
+      </c>
+      <c r="K31" t="s">
+        <v>352</v>
+      </c>
+      <c r="L31" t="s">
+        <v>352</v>
+      </c>
+      <c r="M31" t="s">
+        <v>352</v>
+      </c>
+      <c r="N31" t="s">
+        <v>352</v>
+      </c>
+      <c r="O31" t="s">
+        <v>352</v>
+      </c>
+      <c r="P31" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>352</v>
+      </c>
+      <c r="R31" t="s">
+        <v>352</v>
+      </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="E32" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H32" s="1">
         <v>38718</v>
       </c>
       <c r="I32" s="1">
         <v>39447</v>
       </c>
+      <c r="J32" t="s">
+        <v>352</v>
+      </c>
+      <c r="K32" t="s">
+        <v>352</v>
+      </c>
+      <c r="L32" t="s">
+        <v>352</v>
+      </c>
+      <c r="M32" t="s">
+        <v>352</v>
+      </c>
+      <c r="N32" t="s">
+        <v>352</v>
+      </c>
+      <c r="O32" t="s">
+        <v>352</v>
+      </c>
+      <c r="P32" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>352</v>
+      </c>
       <c r="R32" t="s">
         <v>62</v>
       </c>
@@ -2975,8 +4211,16 @@
       <c r="T32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -2984,18 +4228,50 @@
         <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="E33" t="s">
+        <v>352</v>
+      </c>
+      <c r="F33" t="s">
+        <v>352</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H33" s="1">
         <v>38718</v>
       </c>
       <c r="I33" s="1">
         <v>39447</v>
       </c>
+      <c r="J33" t="s">
+        <v>352</v>
+      </c>
+      <c r="K33" t="s">
+        <v>352</v>
+      </c>
+      <c r="L33" t="s">
+        <v>352</v>
+      </c>
+      <c r="M33" t="s">
+        <v>352</v>
+      </c>
+      <c r="N33" t="s">
+        <v>352</v>
+      </c>
+      <c r="O33" t="s">
+        <v>352</v>
+      </c>
+      <c r="P33" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>352</v>
+      </c>
       <c r="R33" t="s">
         <v>62</v>
       </c>
@@ -3005,8 +4281,16 @@
       <c r="T33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3017,15 +4301,47 @@
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>271</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="E34" t="s">
+        <v>352</v>
+      </c>
+      <c r="F34" t="s">
+        <v>352</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H34" s="1">
         <v>39083</v>
       </c>
       <c r="I34" s="1">
         <v>39447</v>
       </c>
+      <c r="J34" t="s">
+        <v>352</v>
+      </c>
+      <c r="K34" t="s">
+        <v>352</v>
+      </c>
+      <c r="L34" t="s">
+        <v>352</v>
+      </c>
+      <c r="M34" t="s">
+        <v>352</v>
+      </c>
+      <c r="N34" t="s">
+        <v>352</v>
+      </c>
+      <c r="O34" t="s">
+        <v>352</v>
+      </c>
+      <c r="P34" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>352</v>
+      </c>
       <c r="R34" t="s">
         <v>62</v>
       </c>
@@ -3035,65 +4351,156 @@
       <c r="T34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
         <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="E35" t="s">
+        <v>352</v>
+      </c>
+      <c r="F35" t="s">
+        <v>352</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H35" s="1">
         <v>37257</v>
       </c>
       <c r="I35" s="1">
         <v>38717</v>
       </c>
+      <c r="J35" t="s">
+        <v>352</v>
+      </c>
+      <c r="K35" t="s">
+        <v>352</v>
+      </c>
+      <c r="L35" t="s">
+        <v>352</v>
+      </c>
+      <c r="M35" t="s">
+        <v>352</v>
+      </c>
+      <c r="N35" t="s">
+        <v>352</v>
+      </c>
+      <c r="O35" t="s">
+        <v>352</v>
+      </c>
+      <c r="P35" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>352</v>
+      </c>
+      <c r="R35" t="s">
+        <v>352</v>
+      </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="E36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36" t="s">
+        <v>352</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H36" s="1">
         <v>35796</v>
       </c>
       <c r="I36" s="1">
         <v>38717</v>
       </c>
+      <c r="J36" t="s">
+        <v>352</v>
+      </c>
+      <c r="K36" t="s">
+        <v>352</v>
+      </c>
+      <c r="L36" t="s">
+        <v>352</v>
+      </c>
+      <c r="M36" t="s">
+        <v>352</v>
+      </c>
+      <c r="N36" t="s">
+        <v>352</v>
+      </c>
+      <c r="O36" t="s">
+        <v>352</v>
+      </c>
       <c r="P36" t="s">
         <v>82</v>
       </c>
+      <c r="Q36" t="s">
+        <v>352</v>
+      </c>
+      <c r="R36" t="s">
+        <v>352</v>
+      </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3101,83 +4508,209 @@
         <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D37" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="E37" t="s">
+        <v>352</v>
+      </c>
+      <c r="F37" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H37" s="1">
         <v>36892</v>
       </c>
       <c r="I37" s="1">
         <v>38352</v>
       </c>
+      <c r="J37" t="s">
+        <v>352</v>
+      </c>
+      <c r="K37" t="s">
+        <v>352</v>
+      </c>
+      <c r="L37" t="s">
+        <v>352</v>
+      </c>
+      <c r="M37" t="s">
+        <v>352</v>
+      </c>
+      <c r="N37" t="s">
+        <v>352</v>
+      </c>
+      <c r="O37" t="s">
+        <v>352</v>
+      </c>
+      <c r="P37" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>352</v>
+      </c>
+      <c r="R37" t="s">
+        <v>352</v>
+      </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D38" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="E38" t="s">
+        <v>352</v>
+      </c>
+      <c r="F38" t="s">
+        <v>352</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H38" s="1">
         <v>34700</v>
       </c>
-      <c r="I38" s="1">
-        <v>37986</v>
+      <c r="I38" t="s">
+        <v>352</v>
+      </c>
+      <c r="J38" t="s">
+        <v>352</v>
+      </c>
+      <c r="K38" t="s">
+        <v>352</v>
+      </c>
+      <c r="L38" t="s">
+        <v>352</v>
+      </c>
+      <c r="M38" t="s">
+        <v>352</v>
+      </c>
+      <c r="N38" t="s">
+        <v>352</v>
+      </c>
+      <c r="O38" t="s">
+        <v>352</v>
       </c>
       <c r="P38" t="s">
         <v>86</v>
       </c>
+      <c r="Q38" t="s">
+        <v>352</v>
+      </c>
+      <c r="R38" t="s">
+        <v>352</v>
+      </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="E39" t="s">
+        <v>352</v>
+      </c>
+      <c r="F39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H39" s="1">
         <v>34700</v>
       </c>
       <c r="I39" s="1">
         <v>37256</v>
       </c>
+      <c r="J39" t="s">
+        <v>352</v>
+      </c>
+      <c r="K39" t="s">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s">
+        <v>352</v>
+      </c>
+      <c r="M39" t="s">
+        <v>352</v>
+      </c>
+      <c r="N39" t="s">
+        <v>352</v>
+      </c>
+      <c r="O39" t="s">
+        <v>352</v>
+      </c>
+      <c r="P39" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>352</v>
+      </c>
+      <c r="R39" t="s">
+        <v>352</v>
+      </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3185,26 +4718,69 @@
         <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="E40" t="s">
+        <v>352</v>
+      </c>
+      <c r="F40" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H40" s="1">
         <v>34700</v>
       </c>
       <c r="I40" s="1">
         <v>36160</v>
       </c>
+      <c r="J40" t="s">
+        <v>352</v>
+      </c>
+      <c r="K40" t="s">
+        <v>352</v>
+      </c>
+      <c r="L40" t="s">
+        <v>352</v>
+      </c>
+      <c r="M40" t="s">
+        <v>352</v>
+      </c>
+      <c r="N40" t="s">
+        <v>352</v>
+      </c>
+      <c r="O40" t="s">
+        <v>352</v>
+      </c>
+      <c r="P40" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>352</v>
+      </c>
+      <c r="R40" t="s">
+        <v>352</v>
+      </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3212,53 +4788,139 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D41" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="E41" t="s">
+        <v>352</v>
+      </c>
+      <c r="F41" t="s">
+        <v>352</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H41" s="1">
         <v>34700</v>
       </c>
       <c r="I41" s="1">
         <v>36160</v>
       </c>
+      <c r="J41" t="s">
+        <v>352</v>
+      </c>
+      <c r="K41" t="s">
+        <v>352</v>
+      </c>
+      <c r="L41" t="s">
+        <v>352</v>
+      </c>
+      <c r="M41" t="s">
+        <v>352</v>
+      </c>
+      <c r="N41" t="s">
+        <v>352</v>
+      </c>
+      <c r="O41" t="s">
+        <v>352</v>
+      </c>
+      <c r="P41" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>352</v>
+      </c>
+      <c r="R41" t="s">
+        <v>352</v>
+      </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D42" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="E42" t="s">
+        <v>352</v>
+      </c>
+      <c r="F42" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H42" s="1">
         <v>35431</v>
       </c>
       <c r="I42" s="1">
         <v>35795</v>
       </c>
+      <c r="J42" t="s">
+        <v>352</v>
+      </c>
+      <c r="K42" t="s">
+        <v>352</v>
+      </c>
+      <c r="L42" t="s">
+        <v>352</v>
+      </c>
+      <c r="M42" t="s">
+        <v>352</v>
+      </c>
+      <c r="N42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>352</v>
+      </c>
+      <c r="P42" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>352</v>
+      </c>
+      <c r="R42" t="s">
+        <v>352</v>
+      </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3266,26 +4928,69 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D43" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="E43" t="s">
+        <v>352</v>
+      </c>
+      <c r="F43" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H43" s="1">
         <v>35065</v>
       </c>
       <c r="I43" s="1">
         <v>35430</v>
       </c>
+      <c r="J43" t="s">
+        <v>352</v>
+      </c>
+      <c r="K43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s">
+        <v>352</v>
+      </c>
+      <c r="M43" t="s">
+        <v>352</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>352</v>
+      </c>
+      <c r="P43" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>352</v>
+      </c>
+      <c r="R43" t="s">
+        <v>352</v>
+      </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3293,18 +4998,52 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="E44" t="s">
+        <v>352</v>
+      </c>
+      <c r="F44" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H44" s="1">
         <v>40909</v>
       </c>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="J44" t="s">
-        <v>346</v>
+        <v>341</v>
+      </c>
+      <c r="K44" t="s">
+        <v>352</v>
+      </c>
+      <c r="L44" t="s">
+        <v>352</v>
+      </c>
+      <c r="M44" t="s">
+        <v>352</v>
+      </c>
+      <c r="N44" t="s">
+        <v>352</v>
+      </c>
+      <c r="O44" t="s">
+        <v>352</v>
+      </c>
+      <c r="P44" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>352</v>
+      </c>
+      <c r="R44" t="s">
+        <v>352</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -3312,13 +5051,21 @@
       <c r="T44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s">
         <v>97</v>
@@ -3326,6 +5073,12 @@
       <c r="D45" t="s">
         <v>97</v>
       </c>
+      <c r="E45" t="s">
+        <v>352</v>
+      </c>
+      <c r="F45" t="s">
+        <v>352</v>
+      </c>
       <c r="G45" s="1">
         <v>38489</v>
       </c>
@@ -3335,11 +5088,32 @@
       <c r="I45" s="1">
         <v>41639</v>
       </c>
+      <c r="J45" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s">
+        <v>352</v>
+      </c>
+      <c r="L45" t="s">
+        <v>352</v>
+      </c>
+      <c r="M45" t="s">
+        <v>352</v>
+      </c>
+      <c r="N45" t="s">
+        <v>352</v>
+      </c>
+      <c r="O45" t="s">
+        <v>352</v>
+      </c>
       <c r="P45" t="s">
         <v>98</v>
       </c>
+      <c r="Q45" t="s">
+        <v>352</v>
+      </c>
       <c r="R45" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -3347,8 +5121,16 @@
       <c r="T45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3356,24 +5138,69 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D46" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="E46" t="s">
+        <v>352</v>
+      </c>
+      <c r="F46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H46" s="1">
         <v>41275</v>
       </c>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J46" t="s">
+        <v>352</v>
+      </c>
+      <c r="K46" t="s">
+        <v>352</v>
+      </c>
+      <c r="L46" t="s">
+        <v>352</v>
+      </c>
+      <c r="M46" t="s">
+        <v>352</v>
+      </c>
+      <c r="N46" t="s">
+        <v>352</v>
+      </c>
+      <c r="O46" t="s">
+        <v>352</v>
+      </c>
+      <c r="P46" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>352</v>
+      </c>
+      <c r="R46" t="s">
+        <v>352</v>
+      </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3381,18 +5208,52 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D47" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="E47" t="s">
+        <v>352</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H47" s="1">
         <v>41275</v>
       </c>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="J47" t="s">
-        <v>345</v>
+        <v>340</v>
+      </c>
+      <c r="K47" t="s">
+        <v>352</v>
+      </c>
+      <c r="L47" t="s">
+        <v>352</v>
+      </c>
+      <c r="M47" t="s">
+        <v>352</v>
+      </c>
+      <c r="N47" t="s">
+        <v>352</v>
+      </c>
+      <c r="O47" t="s">
+        <v>352</v>
+      </c>
+      <c r="P47" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>352</v>
+      </c>
+      <c r="R47" t="s">
+        <v>352</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -3400,8 +5261,16 @@
       <c r="T47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3414,16 +5283,45 @@
       <c r="D48" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="E48" t="s">
+        <v>352</v>
+      </c>
+      <c r="F48" t="s">
+        <v>352</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H48" s="1">
         <v>41275</v>
       </c>
       <c r="I48" s="1">
         <v>42369</v>
       </c>
+      <c r="J48" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" t="s">
+        <v>352</v>
+      </c>
+      <c r="L48" t="s">
+        <v>352</v>
+      </c>
+      <c r="M48" t="s">
+        <v>352</v>
+      </c>
+      <c r="N48" t="s">
+        <v>352</v>
+      </c>
+      <c r="O48" t="s">
+        <v>352</v>
+      </c>
       <c r="P48" t="s">
         <v>106</v>
       </c>
+      <c r="Q48" t="s">
+        <v>352</v>
+      </c>
       <c r="R48" t="s">
         <v>105</v>
       </c>
@@ -3433,8 +5331,16 @@
       <c r="T48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3442,30 +5348,69 @@
         <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D49" t="s">
         <v>108</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="E49" t="s">
+        <v>352</v>
+      </c>
+      <c r="F49" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H49" s="1">
         <v>41275</v>
       </c>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1">
+        <v>42369</v>
+      </c>
+      <c r="J49" t="s">
+        <v>352</v>
+      </c>
+      <c r="K49" t="s">
+        <v>352</v>
+      </c>
+      <c r="L49" t="s">
+        <v>352</v>
+      </c>
+      <c r="M49" t="s">
+        <v>352</v>
+      </c>
+      <c r="N49" t="s">
+        <v>352</v>
+      </c>
+      <c r="O49" t="s">
+        <v>352</v>
+      </c>
       <c r="P49" t="s">
         <v>109</v>
       </c>
       <c r="Q49" t="s">
         <v>110</v>
       </c>
+      <c r="R49" t="s">
+        <v>352</v>
+      </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3473,64 +5418,156 @@
         <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D50" t="s">
         <v>112</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="E50" t="s">
+        <v>352</v>
+      </c>
+      <c r="F50" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H50" s="1">
         <v>41275</v>
       </c>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="J50" t="s">
-        <v>350</v>
+        <v>345</v>
+      </c>
+      <c r="K50" t="s">
+        <v>352</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="s">
+        <v>352</v>
+      </c>
+      <c r="N50" t="s">
+        <v>352</v>
+      </c>
+      <c r="O50" t="s">
+        <v>352</v>
       </c>
       <c r="P50" t="s">
         <v>113</v>
       </c>
+      <c r="Q50" t="s">
+        <v>352</v>
+      </c>
+      <c r="R50" t="s">
+        <v>352</v>
+      </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>358</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>358</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="E51" t="s">
+        <v>352</v>
+      </c>
+      <c r="F51" t="s">
+        <v>352</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
         <v>115</v>
       </c>
-      <c r="C52" t="s">
-        <v>116</v>
-      </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="E52" t="s">
+        <v>352</v>
+      </c>
+      <c r="F52" t="s">
+        <v>352</v>
       </c>
       <c r="G52" s="1">
         <v>41275</v>
@@ -3541,11 +5578,32 @@
       <c r="I52" s="1">
         <v>42369</v>
       </c>
+      <c r="J52" t="s">
+        <v>352</v>
+      </c>
+      <c r="K52" t="s">
+        <v>352</v>
+      </c>
+      <c r="L52" t="s">
+        <v>352</v>
+      </c>
+      <c r="M52" t="s">
+        <v>352</v>
+      </c>
+      <c r="N52" t="s">
+        <v>352</v>
+      </c>
+      <c r="O52" t="s">
+        <v>352</v>
+      </c>
       <c r="P52" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q52" t="s">
         <v>117</v>
       </c>
-      <c r="Q52" t="s">
-        <v>118</v>
+      <c r="R52" t="s">
+        <v>352</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -3553,19 +5611,33 @@
       <c r="T52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" t="s">
-        <v>120</v>
+      <c r="E53" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" t="s">
+        <v>352</v>
       </c>
       <c r="G53" s="1">
         <v>30682</v>
@@ -3573,26 +5645,69 @@
       <c r="H53" s="1">
         <v>41640</v>
       </c>
-      <c r="I53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J53" t="s">
+        <v>352</v>
+      </c>
+      <c r="K53" t="s">
+        <v>352</v>
+      </c>
+      <c r="L53" t="s">
+        <v>352</v>
+      </c>
+      <c r="M53" t="s">
+        <v>352</v>
+      </c>
+      <c r="N53" t="s">
+        <v>352</v>
+      </c>
+      <c r="O53" t="s">
+        <v>352</v>
+      </c>
+      <c r="P53" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>352</v>
+      </c>
+      <c r="R53" t="s">
+        <v>352</v>
+      </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V53" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
-        <v>240</v>
-      </c>
-      <c r="D54" t="s">
-        <v>122</v>
+      <c r="E54" t="s">
+        <v>352</v>
+      </c>
+      <c r="F54" t="s">
+        <v>352</v>
       </c>
       <c r="G54" s="1">
         <v>41334</v>
@@ -3600,9 +5715,35 @@
       <c r="H54" s="1">
         <v>41640</v>
       </c>
-      <c r="I54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54" t="s">
+        <v>352</v>
+      </c>
+      <c r="K54" t="s">
+        <v>352</v>
+      </c>
+      <c r="L54" t="s">
+        <v>352</v>
+      </c>
+      <c r="M54" t="s">
+        <v>352</v>
+      </c>
+      <c r="N54" t="s">
+        <v>352</v>
+      </c>
+      <c r="O54" t="s">
+        <v>352</v>
+      </c>
       <c r="P54" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>352</v>
+      </c>
+      <c r="R54" t="s">
+        <v>352</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -3610,73 +5751,209 @@
       <c r="T54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V54" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" t="s">
         <v>124</v>
       </c>
-      <c r="C55" t="s">
-        <v>241</v>
-      </c>
-      <c r="D55" t="s">
-        <v>125</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="E55" t="s">
+        <v>352</v>
+      </c>
+      <c r="F55" t="s">
+        <v>352</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J55" t="s">
+        <v>352</v>
+      </c>
+      <c r="K55" t="s">
+        <v>352</v>
+      </c>
+      <c r="L55" t="s">
+        <v>352</v>
+      </c>
+      <c r="M55" t="s">
+        <v>352</v>
+      </c>
+      <c r="N55" t="s">
+        <v>352</v>
+      </c>
+      <c r="O55" t="s">
+        <v>352</v>
+      </c>
+      <c r="P55" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>352</v>
+      </c>
+      <c r="R55" t="s">
+        <v>352</v>
+      </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V55" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C56" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="E56" t="s">
+        <v>352</v>
+      </c>
+      <c r="F56" t="s">
+        <v>352</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J56" t="s">
+        <v>352</v>
+      </c>
+      <c r="K56" t="s">
+        <v>352</v>
+      </c>
+      <c r="L56" t="s">
+        <v>352</v>
+      </c>
+      <c r="M56" t="s">
+        <v>352</v>
+      </c>
+      <c r="N56" t="s">
+        <v>352</v>
+      </c>
+      <c r="O56" t="s">
+        <v>352</v>
+      </c>
+      <c r="P56" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>352</v>
+      </c>
+      <c r="R56" t="s">
+        <v>352</v>
+      </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V56" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="E57" t="s">
+        <v>352</v>
+      </c>
+      <c r="F57" t="s">
+        <v>352</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H57" s="1">
+        <v>40909</v>
+      </c>
       <c r="I57" s="1">
         <v>42004</v>
       </c>
+      <c r="J57" t="s">
+        <v>352</v>
+      </c>
+      <c r="K57" t="s">
+        <v>352</v>
+      </c>
+      <c r="L57" t="s">
+        <v>352</v>
+      </c>
+      <c r="M57" t="s">
+        <v>352</v>
+      </c>
+      <c r="N57" t="s">
+        <v>352</v>
+      </c>
+      <c r="O57" t="s">
+        <v>352</v>
+      </c>
+      <c r="P57" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>352</v>
+      </c>
       <c r="R57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -3684,73 +5961,209 @@
       <c r="T57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V57" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="E58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J58" t="s">
+        <v>352</v>
+      </c>
+      <c r="K58" t="s">
+        <v>352</v>
+      </c>
+      <c r="L58" t="s">
+        <v>352</v>
+      </c>
+      <c r="M58" t="s">
+        <v>352</v>
+      </c>
+      <c r="N58" t="s">
+        <v>352</v>
+      </c>
+      <c r="O58" t="s">
+        <v>352</v>
+      </c>
+      <c r="P58" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>352</v>
+      </c>
+      <c r="R58" t="s">
+        <v>352</v>
+      </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V58" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" t="s">
         <v>130</v>
       </c>
-      <c r="C59" t="s">
-        <v>283</v>
-      </c>
-      <c r="D59" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" s="1"/>
+      <c r="E59" t="s">
+        <v>352</v>
+      </c>
+      <c r="F59" t="s">
+        <v>352</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H59" s="1">
         <v>41640</v>
       </c>
-      <c r="I59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J59" t="s">
+        <v>352</v>
+      </c>
+      <c r="K59" t="s">
+        <v>352</v>
+      </c>
+      <c r="L59" t="s">
+        <v>352</v>
+      </c>
+      <c r="M59" t="s">
+        <v>352</v>
+      </c>
+      <c r="N59" t="s">
+        <v>352</v>
+      </c>
+      <c r="O59" t="s">
+        <v>352</v>
+      </c>
+      <c r="P59" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>352</v>
+      </c>
+      <c r="R59" t="s">
+        <v>352</v>
+      </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V59" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" t="s">
+        <v>352</v>
+      </c>
+      <c r="F60" t="s">
+        <v>352</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J60" t="s">
+        <v>352</v>
+      </c>
+      <c r="K60" t="s">
+        <v>352</v>
+      </c>
+      <c r="L60" t="s">
+        <v>352</v>
+      </c>
+      <c r="M60" t="s">
+        <v>352</v>
+      </c>
+      <c r="N60" t="s">
+        <v>352</v>
+      </c>
+      <c r="O60" t="s">
+        <v>352</v>
+      </c>
+      <c r="P60" t="s">
         <v>132</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="P60" t="s">
-        <v>133</v>
+      <c r="Q60" t="s">
+        <v>352</v>
+      </c>
+      <c r="R60" t="s">
+        <v>352</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -3758,48 +6171,131 @@
       <c r="T60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U60" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V60" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s">
+        <v>280</v>
+      </c>
+      <c r="D61" t="s">
         <v>134</v>
       </c>
-      <c r="C61" t="s">
-        <v>285</v>
-      </c>
-      <c r="D61" t="s">
-        <v>135</v>
-      </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="E61" t="s">
+        <v>352</v>
+      </c>
+      <c r="F61" t="s">
+        <v>352</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J61" t="s">
+        <v>352</v>
+      </c>
+      <c r="K61" t="s">
+        <v>352</v>
+      </c>
+      <c r="L61" t="s">
+        <v>352</v>
+      </c>
+      <c r="M61" t="s">
+        <v>352</v>
+      </c>
+      <c r="N61" t="s">
+        <v>352</v>
+      </c>
+      <c r="O61" t="s">
+        <v>352</v>
+      </c>
+      <c r="P61" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>352</v>
+      </c>
+      <c r="R61" t="s">
+        <v>352</v>
+      </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U61" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V61" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="E62" t="s">
+        <v>352</v>
+      </c>
+      <c r="F62" t="s">
+        <v>352</v>
       </c>
       <c r="G62" s="1">
         <v>40179</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J62" t="s">
+        <v>352</v>
+      </c>
+      <c r="K62" t="s">
+        <v>352</v>
+      </c>
+      <c r="L62" t="s">
+        <v>352</v>
+      </c>
+      <c r="M62" t="s">
+        <v>352</v>
+      </c>
+      <c r="N62" t="s">
+        <v>352</v>
+      </c>
+      <c r="O62" t="s">
+        <v>352</v>
+      </c>
       <c r="P62" t="s">
         <v>10</v>
       </c>
@@ -3807,7 +6303,7 @@
         <v>11</v>
       </c>
       <c r="R62" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -3815,19 +6311,33 @@
       <c r="T62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U62" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V62" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" t="s">
         <v>137</v>
       </c>
-      <c r="C63" t="s">
-        <v>243</v>
-      </c>
-      <c r="D63" t="s">
-        <v>138</v>
+      <c r="E63" t="s">
+        <v>352</v>
+      </c>
+      <c r="F63" t="s">
+        <v>352</v>
       </c>
       <c r="G63" s="1">
         <v>41640</v>
@@ -3836,10 +6346,34 @@
         <v>42005</v>
       </c>
       <c r="I63" s="1">
-        <v>43100</v>
+        <v>42735</v>
+      </c>
+      <c r="J63" t="s">
+        <v>352</v>
+      </c>
+      <c r="K63" t="s">
+        <v>352</v>
+      </c>
+      <c r="L63" t="s">
+        <v>352</v>
+      </c>
+      <c r="M63" t="s">
+        <v>352</v>
+      </c>
+      <c r="N63" t="s">
+        <v>352</v>
+      </c>
+      <c r="O63" t="s">
+        <v>352</v>
+      </c>
+      <c r="P63" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>352</v>
       </c>
       <c r="R63" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -3847,50 +6381,139 @@
       <c r="T63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U63" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V63" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" t="s">
         <v>139</v>
       </c>
-      <c r="C64" t="s">
-        <v>223</v>
-      </c>
-      <c r="D64" t="s">
-        <v>140</v>
-      </c>
-      <c r="G64" s="1"/>
+      <c r="E64" t="s">
+        <v>352</v>
+      </c>
+      <c r="F64" t="s">
+        <v>352</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H64" s="1">
         <v>42005</v>
       </c>
-      <c r="I64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J64" t="s">
+        <v>352</v>
+      </c>
+      <c r="K64" t="s">
+        <v>352</v>
+      </c>
+      <c r="L64" t="s">
+        <v>352</v>
+      </c>
+      <c r="M64" t="s">
+        <v>352</v>
+      </c>
+      <c r="N64" t="s">
+        <v>352</v>
+      </c>
+      <c r="O64" t="s">
+        <v>352</v>
+      </c>
+      <c r="P64" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>352</v>
+      </c>
+      <c r="R64" t="s">
+        <v>352</v>
+      </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V64" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" t="s">
+        <v>352</v>
+      </c>
+      <c r="F65" t="s">
+        <v>352</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J65" t="s">
+        <v>352</v>
+      </c>
+      <c r="K65" t="s">
+        <v>352</v>
+      </c>
+      <c r="L65" t="s">
+        <v>352</v>
+      </c>
+      <c r="M65" t="s">
+        <v>352</v>
+      </c>
+      <c r="N65" t="s">
+        <v>352</v>
+      </c>
+      <c r="O65" t="s">
+        <v>352</v>
+      </c>
+      <c r="P65" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>352</v>
+      </c>
+      <c r="R65" t="s">
         <v>141</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="R65" t="s">
-        <v>142</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -3898,42 +6521,103 @@
       <c r="T65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V65" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="E66" t="s">
+        <v>352</v>
+      </c>
+      <c r="F66" t="s">
+        <v>352</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J66" t="s">
+        <v>352</v>
+      </c>
+      <c r="K66" t="s">
+        <v>352</v>
+      </c>
+      <c r="L66" t="s">
+        <v>352</v>
+      </c>
+      <c r="M66" t="s">
+        <v>352</v>
+      </c>
+      <c r="N66" t="s">
+        <v>352</v>
+      </c>
+      <c r="O66" t="s">
+        <v>352</v>
+      </c>
+      <c r="P66" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>352</v>
+      </c>
+      <c r="R66" t="s">
+        <v>352</v>
+      </c>
       <c r="S66">
         <v>0</v>
       </c>
       <c r="T66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V66" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="E67" t="s">
+        <v>352</v>
+      </c>
+      <c r="F67" t="s">
+        <v>352</v>
       </c>
       <c r="G67" s="1">
         <v>42217</v>
@@ -3941,12 +6625,35 @@
       <c r="H67" s="1">
         <v>42370</v>
       </c>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J67" t="s">
+        <v>352</v>
+      </c>
+      <c r="K67" t="s">
+        <v>352</v>
+      </c>
+      <c r="L67" t="s">
+        <v>352</v>
+      </c>
+      <c r="M67" t="s">
+        <v>352</v>
+      </c>
+      <c r="N67" t="s">
+        <v>352</v>
+      </c>
+      <c r="O67" t="s">
+        <v>352</v>
+      </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q67" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="R67" t="s">
+        <v>352</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -3954,19 +6661,33 @@
       <c r="T67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U67" s="2">
+        <f t="shared" ref="U67:V105" ca="1" si="1">NOW()</f>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V67" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" t="s">
         <v>146</v>
       </c>
-      <c r="C68" t="s">
-        <v>288</v>
-      </c>
-      <c r="D68" t="s">
-        <v>147</v>
+      <c r="E68" t="s">
+        <v>352</v>
+      </c>
+      <c r="F68" t="s">
+        <v>352</v>
       </c>
       <c r="G68" s="1">
         <v>41275</v>
@@ -3974,15 +6695,35 @@
       <c r="H68" s="1">
         <v>42370</v>
       </c>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="J68" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+      <c r="K68" t="s">
+        <v>352</v>
+      </c>
+      <c r="L68" t="s">
+        <v>352</v>
+      </c>
+      <c r="M68" t="s">
+        <v>352</v>
+      </c>
+      <c r="N68" t="s">
+        <v>352</v>
+      </c>
+      <c r="O68" t="s">
+        <v>352</v>
       </c>
       <c r="P68" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>352</v>
       </c>
       <c r="R68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -3990,119 +6731,313 @@
       <c r="T68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U68" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V68" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
       <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
         <v>150</v>
       </c>
-      <c r="C69" t="s">
-        <v>246</v>
-      </c>
-      <c r="D69" t="s">
-        <v>151</v>
-      </c>
-      <c r="G69" s="1"/>
+      <c r="E69" t="s">
+        <v>352</v>
+      </c>
+      <c r="F69" t="s">
+        <v>352</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H69" s="1">
         <v>42370</v>
       </c>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J69" t="s">
+        <v>352</v>
+      </c>
+      <c r="K69" t="s">
+        <v>352</v>
+      </c>
+      <c r="L69" t="s">
+        <v>352</v>
+      </c>
+      <c r="M69" t="s">
+        <v>352</v>
+      </c>
+      <c r="N69" t="s">
+        <v>352</v>
+      </c>
+      <c r="O69" t="s">
+        <v>352</v>
+      </c>
+      <c r="P69" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>352</v>
+      </c>
+      <c r="R69" t="s">
+        <v>352</v>
+      </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U69" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V69" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="E70" t="s">
+        <v>352</v>
+      </c>
+      <c r="F70" t="s">
+        <v>352</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H70" s="1">
         <v>42370</v>
       </c>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J70" t="s">
+        <v>352</v>
+      </c>
+      <c r="K70" t="s">
+        <v>352</v>
+      </c>
+      <c r="L70" t="s">
+        <v>352</v>
+      </c>
+      <c r="M70" t="s">
+        <v>352</v>
+      </c>
+      <c r="N70" t="s">
+        <v>352</v>
+      </c>
+      <c r="O70" t="s">
+        <v>352</v>
+      </c>
+      <c r="P70" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>352</v>
+      </c>
+      <c r="R70" t="s">
+        <v>359</v>
+      </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U70" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V70" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
-      </c>
-      <c r="G71" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="E71" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" t="s">
+        <v>352</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H71" s="1">
         <v>42370</v>
       </c>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J71" t="s">
+        <v>352</v>
+      </c>
+      <c r="K71" t="s">
+        <v>352</v>
+      </c>
+      <c r="L71" t="s">
+        <v>352</v>
+      </c>
+      <c r="M71" t="s">
+        <v>352</v>
+      </c>
+      <c r="N71" t="s">
+        <v>352</v>
+      </c>
+      <c r="O71" t="s">
+        <v>352</v>
+      </c>
+      <c r="P71" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>352</v>
+      </c>
+      <c r="R71" t="s">
+        <v>352</v>
+      </c>
       <c r="S71">
         <v>0</v>
       </c>
       <c r="T71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U71" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V71" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="E72" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72" t="s">
+        <v>352</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H72" s="1">
         <v>42736</v>
       </c>
-      <c r="I72" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J72" t="s">
+        <v>352</v>
+      </c>
+      <c r="K72" t="s">
+        <v>352</v>
+      </c>
+      <c r="L72" t="s">
+        <v>352</v>
+      </c>
+      <c r="M72" t="s">
+        <v>352</v>
+      </c>
+      <c r="N72" t="s">
+        <v>352</v>
+      </c>
+      <c r="O72" t="s">
+        <v>352</v>
+      </c>
+      <c r="P72" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>352</v>
+      </c>
+      <c r="R72" t="s">
+        <v>352</v>
+      </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V72" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="E73" t="s">
+        <v>352</v>
+      </c>
+      <c r="F73" t="s">
+        <v>352</v>
       </c>
       <c r="G73" s="1">
         <v>42617</v>
@@ -4110,9 +7045,35 @@
       <c r="H73" s="1">
         <v>42736</v>
       </c>
-      <c r="I73" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J73" t="s">
+        <v>352</v>
+      </c>
+      <c r="K73" t="s">
+        <v>352</v>
+      </c>
+      <c r="L73" t="s">
+        <v>352</v>
+      </c>
+      <c r="M73" t="s">
+        <v>352</v>
+      </c>
+      <c r="N73" t="s">
+        <v>352</v>
+      </c>
+      <c r="O73" t="s">
+        <v>352</v>
+      </c>
+      <c r="P73" t="s">
+        <v>352</v>
+      </c>
       <c r="Q73" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="R73" t="s">
+        <v>352</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -4120,51 +7081,139 @@
       <c r="T73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U73" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V73" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="E74" t="s">
+        <v>352</v>
+      </c>
+      <c r="F74" t="s">
+        <v>352</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H74" s="1">
         <v>42736</v>
       </c>
-      <c r="I74" s="1"/>
+      <c r="I74" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J74" t="s">
+        <v>352</v>
+      </c>
+      <c r="K74" t="s">
+        <v>352</v>
+      </c>
+      <c r="L74" t="s">
+        <v>352</v>
+      </c>
+      <c r="M74" t="s">
+        <v>352</v>
+      </c>
+      <c r="N74" t="s">
+        <v>352</v>
+      </c>
+      <c r="O74" t="s">
+        <v>352</v>
+      </c>
+      <c r="P74" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>352</v>
+      </c>
+      <c r="R74" t="s">
+        <v>352</v>
+      </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V74" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="E75" t="s">
+        <v>352</v>
+      </c>
+      <c r="F75" t="s">
+        <v>352</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H75" s="1">
         <v>42736</v>
       </c>
       <c r="I75" s="1">
-        <v>43100</v>
+        <v>42996</v>
+      </c>
+      <c r="J75" t="s">
+        <v>352</v>
+      </c>
+      <c r="K75" t="s">
+        <v>352</v>
+      </c>
+      <c r="L75" t="s">
+        <v>352</v>
+      </c>
+      <c r="M75" t="s">
+        <v>352</v>
+      </c>
+      <c r="N75" t="s">
+        <v>352</v>
+      </c>
+      <c r="O75" t="s">
+        <v>352</v>
+      </c>
+      <c r="P75" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>352</v>
+      </c>
+      <c r="R75" t="s">
+        <v>352</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -4172,41 +7221,139 @@
       <c r="T75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U75" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V75" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
-      </c>
-      <c r="G76" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="E76" t="s">
+        <v>352</v>
+      </c>
+      <c r="F76" t="s">
+        <v>352</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="H76" s="1">
         <v>42736</v>
       </c>
-      <c r="I76" s="1"/>
+      <c r="I76" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J76" t="s">
+        <v>352</v>
+      </c>
+      <c r="K76" t="s">
+        <v>352</v>
+      </c>
+      <c r="L76" t="s">
+        <v>352</v>
+      </c>
+      <c r="M76" t="s">
+        <v>352</v>
+      </c>
+      <c r="N76" t="s">
+        <v>352</v>
+      </c>
+      <c r="O76" t="s">
+        <v>352</v>
+      </c>
+      <c r="P76" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>352</v>
+      </c>
+      <c r="R76" t="s">
+        <v>352</v>
+      </c>
       <c r="S76">
         <v>0</v>
       </c>
       <c r="T76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V76" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C77" t="s">
-        <v>293</v>
+        <v>288</v>
+      </c>
+      <c r="D77" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" t="s">
+        <v>352</v>
+      </c>
+      <c r="F77" t="s">
+        <v>352</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H77" t="s">
+        <v>352</v>
+      </c>
+      <c r="I77" t="s">
+        <v>352</v>
+      </c>
+      <c r="J77" t="s">
+        <v>352</v>
+      </c>
+      <c r="K77" t="s">
+        <v>352</v>
+      </c>
+      <c r="L77" t="s">
+        <v>352</v>
+      </c>
+      <c r="M77" t="s">
+        <v>352</v>
+      </c>
+      <c r="N77" t="s">
+        <v>352</v>
+      </c>
+      <c r="O77" t="s">
+        <v>352</v>
+      </c>
+      <c r="P77" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>352</v>
+      </c>
+      <c r="R77" t="s">
+        <v>352</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -4214,16 +7361,69 @@
       <c r="T77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U77" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V77" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>301</v>
+        <v>296</v>
+      </c>
+      <c r="D78" t="s">
+        <v>352</v>
+      </c>
+      <c r="E78" t="s">
+        <v>352</v>
+      </c>
+      <c r="F78" t="s">
+        <v>352</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H78" t="s">
+        <v>352</v>
+      </c>
+      <c r="I78" t="s">
+        <v>352</v>
+      </c>
+      <c r="J78" t="s">
+        <v>352</v>
+      </c>
+      <c r="K78" t="s">
+        <v>352</v>
+      </c>
+      <c r="L78" t="s">
+        <v>352</v>
+      </c>
+      <c r="M78" t="s">
+        <v>352</v>
+      </c>
+      <c r="N78" t="s">
+        <v>352</v>
+      </c>
+      <c r="O78" t="s">
+        <v>352</v>
+      </c>
+      <c r="P78" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>352</v>
+      </c>
+      <c r="R78" t="s">
+        <v>352</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -4231,16 +7431,69 @@
       <c r="T78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U78" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V78" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
       <c r="B79" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" t="s">
         <v>295</v>
       </c>
-      <c r="C79" t="s">
-        <v>300</v>
+      <c r="D79" t="s">
+        <v>352</v>
+      </c>
+      <c r="E79" t="s">
+        <v>352</v>
+      </c>
+      <c r="F79" t="s">
+        <v>352</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H79" t="s">
+        <v>352</v>
+      </c>
+      <c r="I79" t="s">
+        <v>352</v>
+      </c>
+      <c r="J79" t="s">
+        <v>352</v>
+      </c>
+      <c r="K79" t="s">
+        <v>352</v>
+      </c>
+      <c r="L79" t="s">
+        <v>352</v>
+      </c>
+      <c r="M79" t="s">
+        <v>352</v>
+      </c>
+      <c r="N79" t="s">
+        <v>352</v>
+      </c>
+      <c r="O79" t="s">
+        <v>352</v>
+      </c>
+      <c r="P79" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>352</v>
+      </c>
+      <c r="R79" t="s">
+        <v>352</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -4248,16 +7501,69 @@
       <c r="T79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U79" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V79" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="D80" t="s">
+        <v>352</v>
+      </c>
+      <c r="E80" t="s">
+        <v>352</v>
+      </c>
+      <c r="F80" t="s">
+        <v>352</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H80" t="s">
+        <v>352</v>
+      </c>
+      <c r="I80" t="s">
+        <v>352</v>
+      </c>
+      <c r="J80" t="s">
+        <v>352</v>
+      </c>
+      <c r="K80" t="s">
+        <v>352</v>
+      </c>
+      <c r="L80" t="s">
+        <v>352</v>
+      </c>
+      <c r="M80" t="s">
+        <v>352</v>
+      </c>
+      <c r="N80" t="s">
+        <v>352</v>
+      </c>
+      <c r="O80" t="s">
+        <v>352</v>
+      </c>
+      <c r="P80" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>352</v>
+      </c>
+      <c r="R80" t="s">
+        <v>352</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -4265,16 +7571,69 @@
       <c r="T80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U80" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V80" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C81" t="s">
-        <v>299</v>
+        <v>294</v>
+      </c>
+      <c r="D81" t="s">
+        <v>352</v>
+      </c>
+      <c r="E81" t="s">
+        <v>352</v>
+      </c>
+      <c r="F81" t="s">
+        <v>352</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H81" t="s">
+        <v>352</v>
+      </c>
+      <c r="I81" t="s">
+        <v>352</v>
+      </c>
+      <c r="J81" t="s">
+        <v>352</v>
+      </c>
+      <c r="K81" t="s">
+        <v>352</v>
+      </c>
+      <c r="L81" t="s">
+        <v>352</v>
+      </c>
+      <c r="M81" t="s">
+        <v>352</v>
+      </c>
+      <c r="N81" t="s">
+        <v>352</v>
+      </c>
+      <c r="O81" t="s">
+        <v>352</v>
+      </c>
+      <c r="P81" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>352</v>
+      </c>
+      <c r="R81" t="s">
+        <v>352</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -4282,16 +7641,69 @@
       <c r="T81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U81" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V81" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C82" t="s">
-        <v>304</v>
+        <v>299</v>
+      </c>
+      <c r="D82" t="s">
+        <v>352</v>
+      </c>
+      <c r="E82" t="s">
+        <v>352</v>
+      </c>
+      <c r="F82" t="s">
+        <v>352</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H82" t="s">
+        <v>352</v>
+      </c>
+      <c r="I82" t="s">
+        <v>352</v>
+      </c>
+      <c r="J82" t="s">
+        <v>352</v>
+      </c>
+      <c r="K82" t="s">
+        <v>352</v>
+      </c>
+      <c r="L82" t="s">
+        <v>352</v>
+      </c>
+      <c r="M82" t="s">
+        <v>352</v>
+      </c>
+      <c r="N82" t="s">
+        <v>352</v>
+      </c>
+      <c r="O82" t="s">
+        <v>352</v>
+      </c>
+      <c r="P82" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>352</v>
+      </c>
+      <c r="R82" t="s">
+        <v>352</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -4299,16 +7711,69 @@
       <c r="T82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U82" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V82" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C83" t="s">
-        <v>306</v>
+        <v>301</v>
+      </c>
+      <c r="D83" t="s">
+        <v>352</v>
+      </c>
+      <c r="E83" t="s">
+        <v>352</v>
+      </c>
+      <c r="F83" t="s">
+        <v>352</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H83" t="s">
+        <v>352</v>
+      </c>
+      <c r="I83" t="s">
+        <v>352</v>
+      </c>
+      <c r="J83" t="s">
+        <v>352</v>
+      </c>
+      <c r="K83" t="s">
+        <v>352</v>
+      </c>
+      <c r="L83" t="s">
+        <v>352</v>
+      </c>
+      <c r="M83" t="s">
+        <v>352</v>
+      </c>
+      <c r="N83" t="s">
+        <v>352</v>
+      </c>
+      <c r="O83" t="s">
+        <v>352</v>
+      </c>
+      <c r="P83" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>352</v>
+      </c>
+      <c r="R83" t="s">
+        <v>352</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -4316,16 +7781,69 @@
       <c r="T83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U83" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V83" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="D84" t="s">
+        <v>352</v>
+      </c>
+      <c r="E84" t="s">
+        <v>352</v>
+      </c>
+      <c r="F84" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H84" t="s">
+        <v>352</v>
+      </c>
+      <c r="I84" t="s">
+        <v>352</v>
+      </c>
+      <c r="J84" t="s">
+        <v>352</v>
+      </c>
+      <c r="K84" t="s">
+        <v>352</v>
+      </c>
+      <c r="L84" t="s">
+        <v>352</v>
+      </c>
+      <c r="M84" t="s">
+        <v>352</v>
+      </c>
+      <c r="N84" t="s">
+        <v>352</v>
+      </c>
+      <c r="O84" t="s">
+        <v>352</v>
+      </c>
+      <c r="P84" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>352</v>
+      </c>
+      <c r="R84" t="s">
+        <v>352</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -4333,16 +7851,69 @@
       <c r="T84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U84" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V84" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="D85" t="s">
+        <v>352</v>
+      </c>
+      <c r="E85" t="s">
+        <v>352</v>
+      </c>
+      <c r="F85" t="s">
+        <v>352</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H85" t="s">
+        <v>352</v>
+      </c>
+      <c r="I85" t="s">
+        <v>352</v>
+      </c>
+      <c r="J85" t="s">
+        <v>352</v>
+      </c>
+      <c r="K85" t="s">
+        <v>352</v>
+      </c>
+      <c r="L85" t="s">
+        <v>352</v>
+      </c>
+      <c r="M85" t="s">
+        <v>352</v>
+      </c>
+      <c r="N85" t="s">
+        <v>352</v>
+      </c>
+      <c r="O85" t="s">
+        <v>352</v>
+      </c>
+      <c r="P85" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>352</v>
+      </c>
+      <c r="R85" t="s">
+        <v>352</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -4350,16 +7921,69 @@
       <c r="T85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U85" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V85" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C86" t="s">
-        <v>312</v>
+        <v>307</v>
+      </c>
+      <c r="D86" t="s">
+        <v>352</v>
+      </c>
+      <c r="E86" t="s">
+        <v>352</v>
+      </c>
+      <c r="F86" t="s">
+        <v>352</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H86" t="s">
+        <v>352</v>
+      </c>
+      <c r="I86" t="s">
+        <v>352</v>
+      </c>
+      <c r="J86" t="s">
+        <v>352</v>
+      </c>
+      <c r="K86" t="s">
+        <v>352</v>
+      </c>
+      <c r="L86" t="s">
+        <v>352</v>
+      </c>
+      <c r="M86" t="s">
+        <v>352</v>
+      </c>
+      <c r="N86" t="s">
+        <v>352</v>
+      </c>
+      <c r="O86" t="s">
+        <v>352</v>
+      </c>
+      <c r="P86" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>352</v>
+      </c>
+      <c r="R86" t="s">
+        <v>352</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -4367,16 +7991,69 @@
       <c r="T86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U86" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V86" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C87" t="s">
-        <v>314</v>
+        <v>309</v>
+      </c>
+      <c r="D87" t="s">
+        <v>352</v>
+      </c>
+      <c r="E87" t="s">
+        <v>352</v>
+      </c>
+      <c r="F87" t="s">
+        <v>352</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H87" t="s">
+        <v>352</v>
+      </c>
+      <c r="I87" t="s">
+        <v>352</v>
+      </c>
+      <c r="J87" t="s">
+        <v>352</v>
+      </c>
+      <c r="K87" t="s">
+        <v>352</v>
+      </c>
+      <c r="L87" t="s">
+        <v>352</v>
+      </c>
+      <c r="M87" t="s">
+        <v>352</v>
+      </c>
+      <c r="N87" t="s">
+        <v>352</v>
+      </c>
+      <c r="O87" t="s">
+        <v>352</v>
+      </c>
+      <c r="P87" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>352</v>
+      </c>
+      <c r="R87" t="s">
+        <v>352</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -4384,16 +8061,69 @@
       <c r="T87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U87" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V87" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C88" t="s">
-        <v>316</v>
+        <v>311</v>
+      </c>
+      <c r="D88" t="s">
+        <v>352</v>
+      </c>
+      <c r="E88" t="s">
+        <v>352</v>
+      </c>
+      <c r="F88" t="s">
+        <v>352</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H88" t="s">
+        <v>352</v>
+      </c>
+      <c r="I88" t="s">
+        <v>352</v>
+      </c>
+      <c r="J88" t="s">
+        <v>352</v>
+      </c>
+      <c r="K88" t="s">
+        <v>352</v>
+      </c>
+      <c r="L88" t="s">
+        <v>352</v>
+      </c>
+      <c r="M88" t="s">
+        <v>352</v>
+      </c>
+      <c r="N88" t="s">
+        <v>352</v>
+      </c>
+      <c r="O88" t="s">
+        <v>352</v>
+      </c>
+      <c r="P88" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>352</v>
+      </c>
+      <c r="R88" t="s">
+        <v>352</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -4401,16 +8131,69 @@
       <c r="T88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U88" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V88" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C89" t="s">
-        <v>318</v>
+        <v>313</v>
+      </c>
+      <c r="D89" t="s">
+        <v>352</v>
+      </c>
+      <c r="E89" t="s">
+        <v>352</v>
+      </c>
+      <c r="F89" t="s">
+        <v>352</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H89" t="s">
+        <v>352</v>
+      </c>
+      <c r="I89" t="s">
+        <v>352</v>
+      </c>
+      <c r="J89" t="s">
+        <v>352</v>
+      </c>
+      <c r="K89" t="s">
+        <v>352</v>
+      </c>
+      <c r="L89" t="s">
+        <v>352</v>
+      </c>
+      <c r="M89" t="s">
+        <v>352</v>
+      </c>
+      <c r="N89" t="s">
+        <v>352</v>
+      </c>
+      <c r="O89" t="s">
+        <v>352</v>
+      </c>
+      <c r="P89" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>352</v>
+      </c>
+      <c r="R89" t="s">
+        <v>352</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -4418,16 +8201,69 @@
       <c r="T89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U89" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V89" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C90" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="D90" t="s">
+        <v>352</v>
+      </c>
+      <c r="E90" t="s">
+        <v>352</v>
+      </c>
+      <c r="F90" t="s">
+        <v>352</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H90" t="s">
+        <v>352</v>
+      </c>
+      <c r="I90" t="s">
+        <v>352</v>
+      </c>
+      <c r="J90" t="s">
+        <v>352</v>
+      </c>
+      <c r="K90" t="s">
+        <v>352</v>
+      </c>
+      <c r="L90" t="s">
+        <v>352</v>
+      </c>
+      <c r="M90" t="s">
+        <v>352</v>
+      </c>
+      <c r="N90" t="s">
+        <v>352</v>
+      </c>
+      <c r="O90" t="s">
+        <v>352</v>
+      </c>
+      <c r="P90" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>352</v>
+      </c>
+      <c r="R90" t="s">
+        <v>352</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -4435,16 +8271,69 @@
       <c r="T90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U90" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V90" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C91" t="s">
-        <v>321</v>
+        <v>316</v>
+      </c>
+      <c r="D91" t="s">
+        <v>352</v>
+      </c>
+      <c r="E91" t="s">
+        <v>352</v>
+      </c>
+      <c r="F91" t="s">
+        <v>352</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H91" t="s">
+        <v>352</v>
+      </c>
+      <c r="I91" t="s">
+        <v>352</v>
+      </c>
+      <c r="J91" t="s">
+        <v>352</v>
+      </c>
+      <c r="K91" t="s">
+        <v>352</v>
+      </c>
+      <c r="L91" t="s">
+        <v>352</v>
+      </c>
+      <c r="M91" t="s">
+        <v>352</v>
+      </c>
+      <c r="N91" t="s">
+        <v>352</v>
+      </c>
+      <c r="O91" t="s">
+        <v>352</v>
+      </c>
+      <c r="P91" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>352</v>
+      </c>
+      <c r="R91" t="s">
+        <v>352</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -4452,16 +8341,69 @@
       <c r="T91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U91" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V91" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C92" t="s">
-        <v>324</v>
+        <v>319</v>
+      </c>
+      <c r="D92" t="s">
+        <v>352</v>
+      </c>
+      <c r="E92" t="s">
+        <v>352</v>
+      </c>
+      <c r="F92" t="s">
+        <v>352</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H92" t="s">
+        <v>352</v>
+      </c>
+      <c r="I92" t="s">
+        <v>352</v>
+      </c>
+      <c r="J92" t="s">
+        <v>352</v>
+      </c>
+      <c r="K92" t="s">
+        <v>352</v>
+      </c>
+      <c r="L92" t="s">
+        <v>352</v>
+      </c>
+      <c r="M92" t="s">
+        <v>352</v>
+      </c>
+      <c r="N92" t="s">
+        <v>352</v>
+      </c>
+      <c r="O92" t="s">
+        <v>352</v>
+      </c>
+      <c r="P92" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>352</v>
+      </c>
+      <c r="R92" t="s">
+        <v>352</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -4469,16 +8411,69 @@
       <c r="T92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U92" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V92" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C93" t="s">
-        <v>326</v>
+        <v>321</v>
+      </c>
+      <c r="D93" t="s">
+        <v>352</v>
+      </c>
+      <c r="E93" t="s">
+        <v>352</v>
+      </c>
+      <c r="F93" t="s">
+        <v>352</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H93" t="s">
+        <v>352</v>
+      </c>
+      <c r="I93" t="s">
+        <v>352</v>
+      </c>
+      <c r="J93" t="s">
+        <v>352</v>
+      </c>
+      <c r="K93" t="s">
+        <v>352</v>
+      </c>
+      <c r="L93" t="s">
+        <v>352</v>
+      </c>
+      <c r="M93" t="s">
+        <v>352</v>
+      </c>
+      <c r="N93" t="s">
+        <v>352</v>
+      </c>
+      <c r="O93" t="s">
+        <v>352</v>
+      </c>
+      <c r="P93" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>352</v>
+      </c>
+      <c r="R93" t="s">
+        <v>352</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -4486,16 +8481,69 @@
       <c r="T93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U93" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V93" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C94" t="s">
-        <v>328</v>
+        <v>323</v>
+      </c>
+      <c r="D94" t="s">
+        <v>352</v>
+      </c>
+      <c r="E94" t="s">
+        <v>352</v>
+      </c>
+      <c r="F94" t="s">
+        <v>352</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H94" t="s">
+        <v>352</v>
+      </c>
+      <c r="I94" t="s">
+        <v>352</v>
+      </c>
+      <c r="J94" t="s">
+        <v>352</v>
+      </c>
+      <c r="K94" t="s">
+        <v>352</v>
+      </c>
+      <c r="L94" t="s">
+        <v>352</v>
+      </c>
+      <c r="M94" t="s">
+        <v>352</v>
+      </c>
+      <c r="N94" t="s">
+        <v>352</v>
+      </c>
+      <c r="O94" t="s">
+        <v>352</v>
+      </c>
+      <c r="P94" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>352</v>
+      </c>
+      <c r="R94" t="s">
+        <v>352</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -4503,16 +8551,69 @@
       <c r="T94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U94" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V94" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C95" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="D95" t="s">
+        <v>352</v>
+      </c>
+      <c r="E95" t="s">
+        <v>352</v>
+      </c>
+      <c r="F95" t="s">
+        <v>352</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H95" t="s">
+        <v>352</v>
+      </c>
+      <c r="I95" t="s">
+        <v>352</v>
+      </c>
+      <c r="J95" t="s">
+        <v>352</v>
+      </c>
+      <c r="K95" t="s">
+        <v>352</v>
+      </c>
+      <c r="L95" t="s">
+        <v>352</v>
+      </c>
+      <c r="M95" t="s">
+        <v>352</v>
+      </c>
+      <c r="N95" t="s">
+        <v>352</v>
+      </c>
+      <c r="O95" t="s">
+        <v>352</v>
+      </c>
+      <c r="P95" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>352</v>
+      </c>
+      <c r="R95" t="s">
+        <v>352</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -4520,16 +8621,69 @@
       <c r="T95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U95" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V95" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C96" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="D96" t="s">
+        <v>352</v>
+      </c>
+      <c r="E96" t="s">
+        <v>352</v>
+      </c>
+      <c r="F96" t="s">
+        <v>352</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H96" t="s">
+        <v>352</v>
+      </c>
+      <c r="I96" t="s">
+        <v>352</v>
+      </c>
+      <c r="J96" t="s">
+        <v>352</v>
+      </c>
+      <c r="K96" t="s">
+        <v>352</v>
+      </c>
+      <c r="L96" t="s">
+        <v>352</v>
+      </c>
+      <c r="M96" t="s">
+        <v>352</v>
+      </c>
+      <c r="N96" t="s">
+        <v>352</v>
+      </c>
+      <c r="O96" t="s">
+        <v>352</v>
+      </c>
+      <c r="P96" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>352</v>
+      </c>
+      <c r="R96" t="s">
+        <v>352</v>
       </c>
       <c r="S96">
         <v>1</v>
@@ -4537,16 +8691,69 @@
       <c r="T96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U96" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V96" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C97" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="D97" t="s">
+        <v>352</v>
+      </c>
+      <c r="E97" t="s">
+        <v>352</v>
+      </c>
+      <c r="F97" t="s">
+        <v>352</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H97" t="s">
+        <v>352</v>
+      </c>
+      <c r="I97" t="s">
+        <v>352</v>
+      </c>
+      <c r="J97" t="s">
+        <v>352</v>
+      </c>
+      <c r="K97" t="s">
+        <v>352</v>
+      </c>
+      <c r="L97" t="s">
+        <v>352</v>
+      </c>
+      <c r="M97" t="s">
+        <v>352</v>
+      </c>
+      <c r="N97" t="s">
+        <v>352</v>
+      </c>
+      <c r="O97" t="s">
+        <v>352</v>
+      </c>
+      <c r="P97" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>352</v>
+      </c>
+      <c r="R97" t="s">
+        <v>352</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -4554,16 +8761,69 @@
       <c r="T97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U97" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V97" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
+        <v>331</v>
+      </c>
+      <c r="D98" t="s">
+        <v>352</v>
+      </c>
+      <c r="E98" t="s">
+        <v>352</v>
+      </c>
+      <c r="F98" t="s">
+        <v>352</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H98" t="s">
+        <v>352</v>
+      </c>
+      <c r="I98" t="s">
+        <v>352</v>
+      </c>
+      <c r="J98" t="s">
+        <v>352</v>
+      </c>
+      <c r="K98" t="s">
+        <v>352</v>
+      </c>
+      <c r="L98" t="s">
+        <v>352</v>
+      </c>
+      <c r="M98" t="s">
+        <v>352</v>
+      </c>
+      <c r="N98" t="s">
+        <v>352</v>
+      </c>
+      <c r="O98" t="s">
+        <v>352</v>
+      </c>
+      <c r="P98" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>352</v>
+      </c>
+      <c r="R98" t="s">
+        <v>352</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -4571,16 +8831,69 @@
       <c r="T98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U98" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V98" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C99" t="s">
-        <v>337</v>
+        <v>332</v>
+      </c>
+      <c r="D99" t="s">
+        <v>352</v>
+      </c>
+      <c r="E99" t="s">
+        <v>352</v>
+      </c>
+      <c r="F99" t="s">
+        <v>352</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H99" t="s">
+        <v>352</v>
+      </c>
+      <c r="I99" t="s">
+        <v>352</v>
+      </c>
+      <c r="J99" t="s">
+        <v>352</v>
+      </c>
+      <c r="K99" t="s">
+        <v>352</v>
+      </c>
+      <c r="L99" t="s">
+        <v>352</v>
+      </c>
+      <c r="M99" t="s">
+        <v>352</v>
+      </c>
+      <c r="N99" t="s">
+        <v>352</v>
+      </c>
+      <c r="O99" t="s">
+        <v>352</v>
+      </c>
+      <c r="P99" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>352</v>
+      </c>
+      <c r="R99" t="s">
+        <v>352</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -4588,16 +8901,69 @@
       <c r="T99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U99" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V99" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C100" t="s">
-        <v>340</v>
+        <v>335</v>
+      </c>
+      <c r="D100" t="s">
+        <v>352</v>
+      </c>
+      <c r="E100" t="s">
+        <v>352</v>
+      </c>
+      <c r="F100" t="s">
+        <v>352</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H100" t="s">
+        <v>352</v>
+      </c>
+      <c r="I100" t="s">
+        <v>352</v>
+      </c>
+      <c r="J100" t="s">
+        <v>352</v>
+      </c>
+      <c r="K100" t="s">
+        <v>352</v>
+      </c>
+      <c r="L100" t="s">
+        <v>352</v>
+      </c>
+      <c r="M100" t="s">
+        <v>352</v>
+      </c>
+      <c r="N100" t="s">
+        <v>352</v>
+      </c>
+      <c r="O100" t="s">
+        <v>352</v>
+      </c>
+      <c r="P100" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>352</v>
+      </c>
+      <c r="R100" t="s">
+        <v>352</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -4605,16 +8971,69 @@
       <c r="T100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U100" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V100" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="D101" t="s">
+        <v>352</v>
+      </c>
+      <c r="E101" t="s">
+        <v>352</v>
+      </c>
+      <c r="F101" t="s">
+        <v>352</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H101" t="s">
+        <v>352</v>
+      </c>
+      <c r="I101" t="s">
+        <v>352</v>
+      </c>
+      <c r="J101" t="s">
+        <v>352</v>
+      </c>
+      <c r="K101" t="s">
+        <v>352</v>
+      </c>
+      <c r="L101" t="s">
+        <v>352</v>
+      </c>
+      <c r="M101" t="s">
+        <v>352</v>
+      </c>
+      <c r="N101" t="s">
+        <v>352</v>
+      </c>
+      <c r="O101" t="s">
+        <v>352</v>
+      </c>
+      <c r="P101" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>352</v>
+      </c>
+      <c r="R101" t="s">
+        <v>352</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -4622,16 +9041,69 @@
       <c r="T101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U101" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V101" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C102" t="s">
-        <v>343</v>
+        <v>338</v>
+      </c>
+      <c r="D102" t="s">
+        <v>352</v>
+      </c>
+      <c r="E102" t="s">
+        <v>352</v>
+      </c>
+      <c r="F102" t="s">
+        <v>352</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H102" t="s">
+        <v>352</v>
+      </c>
+      <c r="I102" t="s">
+        <v>352</v>
+      </c>
+      <c r="J102" t="s">
+        <v>352</v>
+      </c>
+      <c r="K102" t="s">
+        <v>352</v>
+      </c>
+      <c r="L102" t="s">
+        <v>352</v>
+      </c>
+      <c r="M102" t="s">
+        <v>352</v>
+      </c>
+      <c r="N102" t="s">
+        <v>352</v>
+      </c>
+      <c r="O102" t="s">
+        <v>352</v>
+      </c>
+      <c r="P102" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>352</v>
+      </c>
+      <c r="R102" t="s">
+        <v>352</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -4639,36 +9111,227 @@
       <c r="T102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U102" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V102" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C103" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D103" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="E103" t="s">
+        <v>352</v>
+      </c>
+      <c r="F103" t="s">
+        <v>352</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H103" s="1">
+        <v>43101</v>
+      </c>
+      <c r="I103" t="s">
+        <v>352</v>
+      </c>
+      <c r="J103" t="s">
+        <v>352</v>
+      </c>
+      <c r="K103" t="s">
+        <v>352</v>
+      </c>
+      <c r="L103" t="s">
+        <v>352</v>
+      </c>
+      <c r="M103" t="s">
+        <v>352</v>
+      </c>
+      <c r="N103" t="s">
+        <v>352</v>
+      </c>
+      <c r="O103" t="s">
+        <v>352</v>
+      </c>
+      <c r="P103" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>352</v>
+      </c>
+      <c r="R103" t="s">
+        <v>352</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="U103" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V103" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C104" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D104" t="s">
+        <v>351</v>
+      </c>
+      <c r="E104" t="s">
+        <v>352</v>
+      </c>
+      <c r="F104" t="s">
+        <v>352</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H104" s="1">
+        <v>43101</v>
+      </c>
+      <c r="I104" t="s">
+        <v>352</v>
+      </c>
+      <c r="J104" t="s">
+        <v>352</v>
+      </c>
+      <c r="K104" t="s">
+        <v>352</v>
+      </c>
+      <c r="L104" t="s">
+        <v>352</v>
+      </c>
+      <c r="M104" t="s">
+        <v>352</v>
+      </c>
+      <c r="N104" t="s">
+        <v>352</v>
+      </c>
+      <c r="O104" t="s">
+        <v>352</v>
+      </c>
+      <c r="P104" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>352</v>
+      </c>
+      <c r="R104" t="s">
+        <v>352</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="U104" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V104" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>355</v>
+      </c>
+      <c r="C105" t="s">
         <v>356</v>
+      </c>
+      <c r="D105" t="s">
+        <v>357</v>
+      </c>
+      <c r="E105" t="s">
+        <v>352</v>
+      </c>
+      <c r="F105" t="s">
+        <v>352</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I105" t="s">
+        <v>352</v>
+      </c>
+      <c r="J105" t="s">
+        <v>352</v>
+      </c>
+      <c r="K105" t="s">
+        <v>352</v>
+      </c>
+      <c r="L105" t="s">
+        <v>352</v>
+      </c>
+      <c r="M105" t="s">
+        <v>352</v>
+      </c>
+      <c r="N105" t="s">
+        <v>352</v>
+      </c>
+      <c r="O105" t="s">
+        <v>352</v>
+      </c>
+      <c r="P105" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>352</v>
+      </c>
+      <c r="R105" t="s">
+        <v>352</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
+      </c>
+      <c r="V105" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43128.768205671295</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/_legacy-data/clubs.xlsx
+++ b/database/_legacy-data/clubs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="19545" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20685" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="366">
   <si>
     <t>Dritte III</t>
   </si>
@@ -171,9 +171,6 @@
     <t>http://www.cosmos77.de/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/pages/Cosmos-D%C3%BCssel-77-D%C3%BCsseldorf/123063004385584</t>
-  </si>
-  <si>
     <t>Ice Devils Duisburg</t>
   </si>
   <si>
@@ -858,9 +855,6 @@
     <t>Papa Kowoll</t>
   </si>
   <si>
-    <t>Cosmos AH</t>
-  </si>
-  <si>
     <t>Rheinland</t>
   </si>
   <si>
@@ -1105,6 +1099,24 @@
   </si>
   <si>
     <t>Unterbach</t>
+  </si>
+  <si>
+    <t>Cosmos77</t>
+  </si>
+  <si>
+    <t>#ff8040</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#00ff00</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CosmosDuessel77</t>
+  </si>
+  <si>
+    <t>Cosmos77 AH</t>
   </si>
 </sst>
 </file>
@@ -1954,10 +1966,10 @@
   <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,70 +1996,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" t="s">
         <v>167</v>
       </c>
-      <c r="G1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>179</v>
       </c>
-      <c r="P1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>170</v>
-      </c>
-      <c r="R1" t="s">
-        <v>168</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>180</v>
       </c>
-      <c r="T1" t="s">
-        <v>181</v>
-      </c>
       <c r="U1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="V1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -2058,52 +2070,52 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H2" s="1">
         <v>40544</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -2113,11 +2125,11 @@
       </c>
       <c r="U2" s="2">
         <f ca="1">NOW()</f>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V2" s="2">
         <f ca="1">NOW()</f>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2128,16 +2140,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G3" s="1">
         <v>35727</v>
@@ -2146,34 +2158,34 @@
         <v>37987</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2183,11 +2195,11 @@
       </c>
       <c r="U3" s="2">
         <f t="shared" ref="U3:V66" ca="1" si="0">NOW()</f>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2198,16 +2210,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G4" s="1">
         <v>38700</v>
@@ -2219,22 +2231,22 @@
         <v>42265</v>
       </c>
       <c r="J4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P4" t="s">
         <v>7</v>
@@ -2253,11 +2265,11 @@
       </c>
       <c r="U4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2265,19 +2277,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G5" s="1">
         <v>29184</v>
@@ -2286,25 +2298,25 @@
         <v>36161</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P5" t="s">
         <v>10</v>
@@ -2313,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="R5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2323,11 +2335,11 @@
       </c>
       <c r="U5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2338,19 +2350,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H6" s="1">
         <v>39448</v>
@@ -2359,28 +2371,28 @@
         <v>41639</v>
       </c>
       <c r="J6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P6" t="s">
         <v>15</v>
       </c>
       <c r="Q6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R6" t="s">
         <v>14</v>
@@ -2393,11 +2405,11 @@
       </c>
       <c r="U6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2408,19 +2420,19 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H7" s="1">
         <v>40544</v>
@@ -2429,22 +2441,22 @@
         <v>42735</v>
       </c>
       <c r="J7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P7" t="s">
         <v>18</v>
@@ -2453,7 +2465,7 @@
         <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -2463,11 +2475,11 @@
       </c>
       <c r="U7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2478,19 +2490,19 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H8" s="1">
         <v>40179</v>
@@ -2499,31 +2511,31 @@
         <v>42735</v>
       </c>
       <c r="J8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q8" t="s">
         <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2533,11 +2545,11 @@
       </c>
       <c r="U8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2548,52 +2560,52 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H9" s="1">
         <v>39814</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P9" t="s">
         <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2603,11 +2615,11 @@
       </c>
       <c r="U9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2618,49 +2630,49 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H10" s="1">
         <v>36161</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R10" t="s">
         <v>28</v>
@@ -2673,11 +2685,11 @@
       </c>
       <c r="U10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2688,19 +2700,19 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H11" s="1">
         <v>40544</v>
@@ -2709,22 +2721,22 @@
         <v>42369</v>
       </c>
       <c r="J11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P11" t="s">
         <v>31</v>
@@ -2733,7 +2745,7 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2743,11 +2755,11 @@
       </c>
       <c r="U11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2764,10 +2776,10 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G12" s="1">
         <v>31584</v>
@@ -2779,31 +2791,31 @@
         <v>41893</v>
       </c>
       <c r="J12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P12" t="s">
         <v>35</v>
       </c>
       <c r="Q12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2813,11 +2825,11 @@
       </c>
       <c r="U12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2828,16 +2840,16 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G13" s="1">
         <v>39397</v>
@@ -2846,34 +2858,34 @@
         <v>39448</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2883,11 +2895,11 @@
       </c>
       <c r="U13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -2898,19 +2910,19 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H14" s="1">
         <v>38353</v>
@@ -2919,31 +2931,31 @@
         <v>41274</v>
       </c>
       <c r="J14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P14" t="s">
         <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2953,11 +2965,11 @@
       </c>
       <c r="U14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2968,16 +2980,16 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G15" s="1">
         <v>37257</v>
@@ -2989,31 +3001,31 @@
         <v>43100</v>
       </c>
       <c r="J15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P15" t="s">
         <v>43</v>
       </c>
       <c r="Q15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -3023,11 +3035,11 @@
       </c>
       <c r="U15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -3038,43 +3050,43 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H16" s="1">
         <v>40909</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P16" t="s">
         <v>46</v>
@@ -3083,7 +3095,7 @@
         <v>47</v>
       </c>
       <c r="R16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -3093,11 +3105,11 @@
       </c>
       <c r="U16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -3105,55 +3117,55 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F17" t="s">
-        <v>352</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
+      </c>
+      <c r="G17" s="1">
+        <v>28246</v>
       </c>
       <c r="H17" s="1">
         <v>34700</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J17" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="K17" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="L17" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M17" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="N17" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="O17" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="P17" t="s">
         <v>49</v>
       </c>
       <c r="Q17" t="s">
-        <v>50</v>
+        <v>364</v>
       </c>
       <c r="R17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -3163,11 +3175,11 @@
       </c>
       <c r="U17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -3175,55 +3187,55 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H18" s="1">
         <v>40909</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3233,11 +3245,11 @@
       </c>
       <c r="U18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -3245,22 +3257,22 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
       <c r="E19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H19" s="1">
         <v>40909</v>
@@ -3269,31 +3281,31 @@
         <v>42369</v>
       </c>
       <c r="J19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -3303,11 +3315,11 @@
       </c>
       <c r="U19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -3315,19 +3327,19 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G20" s="1">
         <v>30317</v>
@@ -3339,31 +3351,31 @@
         <v>42004</v>
       </c>
       <c r="J20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -3373,11 +3385,11 @@
       </c>
       <c r="U20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -3385,22 +3397,22 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
       <c r="D21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H21" s="1">
         <v>35065</v>
@@ -3409,31 +3421,31 @@
         <v>38717</v>
       </c>
       <c r="J21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3443,11 +3455,11 @@
       </c>
       <c r="U21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -3455,22 +3467,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H22" s="1">
         <v>35065</v>
@@ -3479,31 +3491,31 @@
         <v>37986</v>
       </c>
       <c r="J22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3513,11 +3525,11 @@
       </c>
       <c r="U22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -3525,22 +3537,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H23" s="1">
         <v>35796</v>
@@ -3549,31 +3561,31 @@
         <v>39447</v>
       </c>
       <c r="J23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3583,11 +3595,11 @@
       </c>
       <c r="U23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -3595,22 +3607,22 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H24" s="1">
         <v>35065</v>
@@ -3619,31 +3631,31 @@
         <v>35795</v>
       </c>
       <c r="J24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3653,11 +3665,11 @@
       </c>
       <c r="U24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -3665,55 +3677,55 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" t="s">
         <v>65</v>
       </c>
-      <c r="Q25" t="s">
-        <v>66</v>
-      </c>
       <c r="R25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3723,11 +3735,11 @@
       </c>
       <c r="U25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -3735,19 +3747,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G26" s="1">
         <v>37257</v>
@@ -3759,31 +3771,31 @@
         <v>39082</v>
       </c>
       <c r="J26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3793,11 +3805,11 @@
       </c>
       <c r="U26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -3805,55 +3817,55 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3863,11 +3875,11 @@
       </c>
       <c r="U27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -3875,22 +3887,22 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H28" s="1">
         <v>34700</v>
@@ -3899,31 +3911,31 @@
         <v>36891</v>
       </c>
       <c r="J28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3933,11 +3945,11 @@
       </c>
       <c r="U28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -3945,22 +3957,22 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H29" s="1">
         <v>34700</v>
@@ -3969,31 +3981,31 @@
         <v>40543</v>
       </c>
       <c r="J29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4003,11 +4015,11 @@
       </c>
       <c r="U29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -4015,19 +4027,19 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G30" s="1">
         <v>38718</v>
@@ -4039,31 +4051,31 @@
         <v>40178</v>
       </c>
       <c r="J30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -4073,11 +4085,11 @@
       </c>
       <c r="U30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -4085,22 +4097,22 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H31" s="1">
         <v>39083</v>
@@ -4109,31 +4121,31 @@
         <v>39447</v>
       </c>
       <c r="J31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4143,11 +4155,11 @@
       </c>
       <c r="U31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -4155,22 +4167,22 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H32" s="1">
         <v>38718</v>
@@ -4179,31 +4191,31 @@
         <v>39447</v>
       </c>
       <c r="J32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4213,11 +4225,11 @@
       </c>
       <c r="U32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -4225,22 +4237,22 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H33" s="1">
         <v>38718</v>
@@ -4249,31 +4261,31 @@
         <v>39447</v>
       </c>
       <c r="J33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4283,11 +4295,11 @@
       </c>
       <c r="U33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -4295,22 +4307,22 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
       <c r="D34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H34" s="1">
         <v>39083</v>
@@ -4319,31 +4331,31 @@
         <v>39447</v>
       </c>
       <c r="J34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4353,11 +4365,11 @@
       </c>
       <c r="U34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -4365,22 +4377,22 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H35" s="1">
         <v>37257</v>
@@ -4389,31 +4401,31 @@
         <v>38717</v>
       </c>
       <c r="J35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4423,11 +4435,11 @@
       </c>
       <c r="U35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -4435,22 +4447,22 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H36" s="1">
         <v>35796</v>
@@ -4459,31 +4471,31 @@
         <v>38717</v>
       </c>
       <c r="J36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4493,11 +4505,11 @@
       </c>
       <c r="U36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -4505,22 +4517,22 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
       <c r="E37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H37" s="1">
         <v>36892</v>
@@ -4529,31 +4541,31 @@
         <v>38352</v>
       </c>
       <c r="J37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4563,11 +4575,11 @@
       </c>
       <c r="U37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -4575,55 +4587,55 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H38" s="1">
         <v>34700</v>
       </c>
       <c r="I38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4633,11 +4645,11 @@
       </c>
       <c r="U38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -4645,22 +4657,22 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H39" s="1">
         <v>34700</v>
@@ -4669,31 +4681,31 @@
         <v>37256</v>
       </c>
       <c r="J39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4703,11 +4715,11 @@
       </c>
       <c r="U39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -4715,22 +4727,22 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
       <c r="E40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H40" s="1">
         <v>34700</v>
@@ -4739,31 +4751,31 @@
         <v>36160</v>
       </c>
       <c r="J40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -4773,11 +4785,11 @@
       </c>
       <c r="U40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -4785,22 +4797,22 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
-        <v>272</v>
-      </c>
-      <c r="D41" t="s">
-        <v>91</v>
-      </c>
       <c r="E41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H41" s="1">
         <v>34700</v>
@@ -4809,31 +4821,31 @@
         <v>36160</v>
       </c>
       <c r="J41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -4843,11 +4855,11 @@
       </c>
       <c r="U41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -4855,22 +4867,22 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H42" s="1">
         <v>35431</v>
@@ -4879,31 +4891,31 @@
         <v>35795</v>
       </c>
       <c r="J42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4913,11 +4925,11 @@
       </c>
       <c r="U42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -4925,22 +4937,22 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" t="s">
         <v>93</v>
       </c>
-      <c r="C43" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" t="s">
-        <v>94</v>
-      </c>
       <c r="E43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H43" s="1">
         <v>35065</v>
@@ -4949,31 +4961,31 @@
         <v>35430</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -4983,11 +4995,11 @@
       </c>
       <c r="U43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -4995,55 +5007,55 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" t="s">
         <v>95</v>
       </c>
-      <c r="C44" t="s">
-        <v>226</v>
-      </c>
-      <c r="D44" t="s">
-        <v>96</v>
-      </c>
       <c r="E44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H44" s="1">
         <v>40909</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5053,11 +5065,11 @@
       </c>
       <c r="U44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -5065,19 +5077,19 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G45" s="1">
         <v>38489</v>
@@ -5089,31 +5101,31 @@
         <v>41639</v>
       </c>
       <c r="J45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -5123,11 +5135,11 @@
       </c>
       <c r="U45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -5135,55 +5147,55 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" t="s">
         <v>99</v>
       </c>
-      <c r="C46" t="s">
-        <v>273</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
       <c r="E46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H46" s="1">
         <v>41275</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5193,11 +5205,11 @@
       </c>
       <c r="U46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -5205,55 +5217,55 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" t="s">
         <v>101</v>
       </c>
-      <c r="C47" t="s">
-        <v>274</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H47" s="1">
         <v>41275</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J47" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -5263,11 +5275,11 @@
       </c>
       <c r="U47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -5275,22 +5287,22 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
         <v>103</v>
       </c>
-      <c r="C48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" t="s">
-        <v>104</v>
-      </c>
       <c r="E48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H48" s="1">
         <v>41275</v>
@@ -5299,31 +5311,31 @@
         <v>42369</v>
       </c>
       <c r="J48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -5333,11 +5345,11 @@
       </c>
       <c r="U48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -5345,22 +5357,22 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" t="s">
         <v>107</v>
       </c>
-      <c r="C49" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" t="s">
-        <v>108</v>
-      </c>
       <c r="E49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H49" s="1">
         <v>41275</v>
@@ -5369,31 +5381,31 @@
         <v>42369</v>
       </c>
       <c r="J49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P49" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q49" t="s">
         <v>109</v>
       </c>
-      <c r="Q49" t="s">
-        <v>110</v>
-      </c>
       <c r="R49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -5403,11 +5415,11 @@
       </c>
       <c r="U49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -5415,55 +5427,55 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" t="s">
         <v>111</v>
       </c>
-      <c r="C50" t="s">
-        <v>275</v>
-      </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
       <c r="E50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H50" s="1">
         <v>41275</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J50" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -5473,11 +5485,11 @@
       </c>
       <c r="U50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -5485,55 +5497,55 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C51" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D51" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F51" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -5543,11 +5555,11 @@
       </c>
       <c r="U51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -5555,19 +5567,19 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
         <v>114</v>
       </c>
-      <c r="C52" t="s">
-        <v>115</v>
-      </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G52" s="1">
         <v>41275</v>
@@ -5579,31 +5591,31 @@
         <v>42369</v>
       </c>
       <c r="J52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P52" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q52" t="s">
         <v>116</v>
       </c>
-      <c r="Q52" t="s">
-        <v>117</v>
-      </c>
       <c r="R52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -5613,11 +5625,11 @@
       </c>
       <c r="U52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -5625,19 +5637,19 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" t="s">
         <v>118</v>
       </c>
-      <c r="C53" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" t="s">
-        <v>119</v>
-      </c>
       <c r="E53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G53" s="1">
         <v>30682</v>
@@ -5646,34 +5658,34 @@
         <v>41640</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -5683,11 +5695,11 @@
       </c>
       <c r="U53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -5695,19 +5707,19 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" t="s">
         <v>120</v>
       </c>
-      <c r="C54" t="s">
-        <v>237</v>
-      </c>
-      <c r="D54" t="s">
-        <v>121</v>
-      </c>
       <c r="E54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G54" s="1">
         <v>41334</v>
@@ -5716,34 +5728,34 @@
         <v>41640</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -5753,11 +5765,11 @@
       </c>
       <c r="U54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -5765,55 +5777,55 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" t="s">
         <v>123</v>
       </c>
-      <c r="C55" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" t="s">
-        <v>124</v>
-      </c>
       <c r="E55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -5823,11 +5835,11 @@
       </c>
       <c r="U55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -5835,55 +5847,55 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -5893,11 +5905,11 @@
       </c>
       <c r="U56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -5905,22 +5917,22 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H57" s="1">
         <v>40909</v>
@@ -5929,31 +5941,31 @@
         <v>42004</v>
       </c>
       <c r="J57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -5963,11 +5975,11 @@
       </c>
       <c r="U57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -5975,55 +5987,55 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -6033,11 +6045,11 @@
       </c>
       <c r="U58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -6045,55 +6057,55 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" t="s">
         <v>129</v>
       </c>
-      <c r="C59" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" t="s">
-        <v>130</v>
-      </c>
       <c r="E59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H59" s="1">
         <v>41640</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -6103,11 +6115,11 @@
       </c>
       <c r="U59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -6115,55 +6127,55 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" t="s">
+        <v>350</v>
+      </c>
+      <c r="F60" t="s">
+        <v>350</v>
+      </c>
+      <c r="G60" s="1">
+        <v>28246</v>
+      </c>
+      <c r="H60" s="1">
+        <v>34700</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J60" t="s">
+        <v>350</v>
+      </c>
+      <c r="K60" t="s">
+        <v>350</v>
+      </c>
+      <c r="L60" t="s">
+        <v>350</v>
+      </c>
+      <c r="M60" t="s">
+        <v>350</v>
+      </c>
+      <c r="N60" t="s">
+        <v>350</v>
+      </c>
+      <c r="O60" t="s">
+        <v>350</v>
+      </c>
+      <c r="P60" t="s">
         <v>131</v>
       </c>
-      <c r="E60" t="s">
-        <v>352</v>
-      </c>
-      <c r="F60" t="s">
-        <v>352</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J60" t="s">
-        <v>352</v>
-      </c>
-      <c r="K60" t="s">
-        <v>352</v>
-      </c>
-      <c r="L60" t="s">
-        <v>352</v>
-      </c>
-      <c r="M60" t="s">
-        <v>352</v>
-      </c>
-      <c r="N60" t="s">
-        <v>352</v>
-      </c>
-      <c r="O60" t="s">
-        <v>352</v>
-      </c>
-      <c r="P60" t="s">
-        <v>132</v>
-      </c>
       <c r="Q60" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="R60" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -6173,11 +6185,11 @@
       </c>
       <c r="U60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -6185,55 +6197,55 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" t="s">
         <v>133</v>
       </c>
-      <c r="C61" t="s">
-        <v>280</v>
-      </c>
-      <c r="D61" t="s">
-        <v>134</v>
-      </c>
       <c r="E61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -6243,11 +6255,11 @@
       </c>
       <c r="U61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -6255,46 +6267,46 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G62" s="1">
         <v>40179</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P62" t="s">
         <v>10</v>
@@ -6303,7 +6315,7 @@
         <v>11</v>
       </c>
       <c r="R62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -6313,11 +6325,11 @@
       </c>
       <c r="U62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -6325,19 +6337,19 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" t="s">
         <v>136</v>
       </c>
-      <c r="C63" t="s">
-        <v>240</v>
-      </c>
-      <c r="D63" t="s">
-        <v>137</v>
-      </c>
       <c r="E63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G63" s="1">
         <v>41640</v>
@@ -6349,31 +6361,31 @@
         <v>42735</v>
       </c>
       <c r="J63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -6383,11 +6395,11 @@
       </c>
       <c r="U63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -6395,55 +6407,55 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" t="s">
         <v>138</v>
       </c>
-      <c r="C64" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" t="s">
-        <v>139</v>
-      </c>
       <c r="E64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H64" s="1">
         <v>42005</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -6453,11 +6465,11 @@
       </c>
       <c r="U64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -6465,55 +6477,55 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" t="s">
+        <v>350</v>
+      </c>
+      <c r="F65" t="s">
+        <v>350</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J65" t="s">
+        <v>350</v>
+      </c>
+      <c r="K65" t="s">
+        <v>350</v>
+      </c>
+      <c r="L65" t="s">
+        <v>350</v>
+      </c>
+      <c r="M65" t="s">
+        <v>350</v>
+      </c>
+      <c r="N65" t="s">
+        <v>350</v>
+      </c>
+      <c r="O65" t="s">
+        <v>350</v>
+      </c>
+      <c r="P65" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>350</v>
+      </c>
+      <c r="R65" t="s">
         <v>140</v>
-      </c>
-      <c r="E65" t="s">
-        <v>352</v>
-      </c>
-      <c r="F65" t="s">
-        <v>352</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J65" t="s">
-        <v>352</v>
-      </c>
-      <c r="K65" t="s">
-        <v>352</v>
-      </c>
-      <c r="L65" t="s">
-        <v>352</v>
-      </c>
-      <c r="M65" t="s">
-        <v>352</v>
-      </c>
-      <c r="N65" t="s">
-        <v>352</v>
-      </c>
-      <c r="O65" t="s">
-        <v>352</v>
-      </c>
-      <c r="P65" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>352</v>
-      </c>
-      <c r="R65" t="s">
-        <v>141</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -6523,11 +6535,11 @@
       </c>
       <c r="U65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -6535,55 +6547,55 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -6593,11 +6605,11 @@
       </c>
       <c r="U66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -6605,19 +6617,19 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G67" s="1">
         <v>42217</v>
@@ -6626,34 +6638,34 @@
         <v>42370</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -6663,11 +6675,11 @@
       </c>
       <c r="U67" s="2">
         <f t="shared" ref="U67:V105" ca="1" si="1">NOW()</f>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -6675,19 +6687,19 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" t="s">
         <v>145</v>
       </c>
-      <c r="C68" t="s">
-        <v>283</v>
-      </c>
-      <c r="D68" t="s">
-        <v>146</v>
-      </c>
       <c r="E68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G68" s="1">
         <v>41275</v>
@@ -6696,34 +6708,34 @@
         <v>42370</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J68" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -6733,11 +6745,11 @@
       </c>
       <c r="U68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -6745,55 +6757,55 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" t="s">
         <v>149</v>
       </c>
-      <c r="C69" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" t="s">
-        <v>150</v>
-      </c>
       <c r="E69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H69" s="1">
         <v>42370</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -6803,11 +6815,11 @@
       </c>
       <c r="U69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -6815,55 +6827,55 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
         <v>103</v>
       </c>
-      <c r="C70" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" t="s">
-        <v>104</v>
-      </c>
       <c r="E70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H70" s="1">
         <v>42370</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R70" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -6873,11 +6885,11 @@
       </c>
       <c r="U70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -6885,55 +6897,55 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71" t="s">
         <v>151</v>
       </c>
-      <c r="C71" t="s">
-        <v>284</v>
-      </c>
-      <c r="D71" t="s">
-        <v>152</v>
-      </c>
       <c r="E71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H71" s="1">
         <v>42370</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -6943,11 +6955,11 @@
       </c>
       <c r="U71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -6955,55 +6967,55 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H72" s="1">
         <v>42736</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -7013,11 +7025,11 @@
       </c>
       <c r="U72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -7025,19 +7037,19 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" t="s">
         <v>154</v>
       </c>
-      <c r="C73" t="s">
-        <v>286</v>
-      </c>
-      <c r="D73" t="s">
-        <v>155</v>
-      </c>
       <c r="E73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G73" s="1">
         <v>42617</v>
@@ -7046,34 +7058,34 @@
         <v>42736</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -7083,11 +7095,11 @@
       </c>
       <c r="U73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -7095,55 +7107,55 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74" t="s">
         <v>157</v>
       </c>
-      <c r="C74" t="s">
-        <v>244</v>
-      </c>
-      <c r="D74" t="s">
-        <v>158</v>
-      </c>
       <c r="E74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H74" s="1">
         <v>42736</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -7153,11 +7165,11 @@
       </c>
       <c r="U74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -7165,22 +7177,22 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>285</v>
+      </c>
+      <c r="D75" t="s">
         <v>159</v>
       </c>
-      <c r="C75" t="s">
-        <v>287</v>
-      </c>
-      <c r="D75" t="s">
-        <v>160</v>
-      </c>
       <c r="E75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H75" s="1">
         <v>42736</v>
@@ -7189,31 +7201,31 @@
         <v>42996</v>
       </c>
       <c r="J75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -7223,11 +7235,11 @@
       </c>
       <c r="U75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -7235,55 +7247,55 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H76" s="1">
         <v>42736</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -7293,11 +7305,11 @@
       </c>
       <c r="U76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -7305,55 +7317,55 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -7363,11 +7375,11 @@
       </c>
       <c r="U77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -7375,55 +7387,55 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -7433,11 +7445,11 @@
       </c>
       <c r="U78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -7445,55 +7457,55 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -7503,11 +7515,11 @@
       </c>
       <c r="U79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -7515,55 +7527,55 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C80" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R80" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -7573,11 +7585,11 @@
       </c>
       <c r="U80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -7585,55 +7597,55 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -7643,11 +7655,11 @@
       </c>
       <c r="U81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -7655,55 +7667,55 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R82" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -7713,11 +7725,11 @@
       </c>
       <c r="U82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -7725,55 +7737,55 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C83" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -7783,11 +7795,11 @@
       </c>
       <c r="U83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -7795,55 +7807,55 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -7853,11 +7865,11 @@
       </c>
       <c r="U84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -7865,55 +7877,55 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -7923,11 +7935,11 @@
       </c>
       <c r="U85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -7935,55 +7947,55 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C86" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -7993,11 +8005,11 @@
       </c>
       <c r="U86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -8005,55 +8017,55 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C87" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -8063,11 +8075,11 @@
       </c>
       <c r="U87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
@@ -8075,55 +8087,55 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C88" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -8133,11 +8145,11 @@
       </c>
       <c r="U88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -8145,55 +8157,55 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C89" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -8203,11 +8215,11 @@
       </c>
       <c r="U89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -8215,55 +8227,55 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C90" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -8273,11 +8285,11 @@
       </c>
       <c r="U90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
@@ -8285,55 +8297,55 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -8343,11 +8355,11 @@
       </c>
       <c r="U91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -8355,55 +8367,55 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C92" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -8413,11 +8425,11 @@
       </c>
       <c r="U92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
@@ -8425,55 +8437,55 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C93" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -8483,11 +8495,11 @@
       </c>
       <c r="U93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
@@ -8495,55 +8507,55 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C94" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -8553,11 +8565,11 @@
       </c>
       <c r="U94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
@@ -8565,55 +8577,55 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R95" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -8623,11 +8635,11 @@
       </c>
       <c r="U95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -8635,55 +8647,55 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C96" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S96">
         <v>1</v>
@@ -8693,11 +8705,11 @@
       </c>
       <c r="U96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -8705,55 +8717,55 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C97" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -8763,11 +8775,11 @@
       </c>
       <c r="U97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
@@ -8775,55 +8787,55 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C98" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -8833,11 +8845,11 @@
       </c>
       <c r="U98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -8845,55 +8857,55 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C99" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -8903,11 +8915,11 @@
       </c>
       <c r="U99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
@@ -8915,55 +8927,55 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C100" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -8973,11 +8985,11 @@
       </c>
       <c r="U100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
@@ -8985,55 +8997,55 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C101" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -9043,11 +9055,11 @@
       </c>
       <c r="U101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
@@ -9055,55 +9067,55 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C102" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -9113,11 +9125,11 @@
       </c>
       <c r="U102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -9125,55 +9137,55 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C103" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D103" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H103" s="1">
         <v>43101</v>
       </c>
       <c r="I103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -9183,11 +9195,11 @@
       </c>
       <c r="U103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -9195,55 +9207,55 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C104" t="s">
+        <v>347</v>
+      </c>
+      <c r="D104" t="s">
         <v>349</v>
       </c>
-      <c r="D104" t="s">
-        <v>351</v>
-      </c>
       <c r="E104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H104" s="1">
         <v>43101</v>
       </c>
       <c r="I104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -9253,11 +9265,11 @@
       </c>
       <c r="U104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -9265,55 +9277,55 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
+        <v>353</v>
+      </c>
+      <c r="C105" t="s">
+        <v>354</v>
+      </c>
+      <c r="D105" t="s">
         <v>355</v>
       </c>
-      <c r="C105" t="s">
-        <v>356</v>
-      </c>
-      <c r="D105" t="s">
-        <v>357</v>
-      </c>
       <c r="E105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -9323,11 +9335,11 @@
       </c>
       <c r="U105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
       <c r="V105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43128.768205671295</v>
+        <v>43129.685524768516</v>
       </c>
     </row>
   </sheetData>

--- a/database/_legacy-data/clubs.xlsx
+++ b/database/_legacy-data/clubs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20685" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21825" yWindow="0" windowWidth="3360" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="366">
   <si>
     <t>Dritte III</t>
   </si>
@@ -1966,10 +1966,10 @@
   <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q60" sqref="Q60"/>
+      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,11 +2125,11 @@
       </c>
       <c r="U2" s="2">
         <f ca="1">NOW()</f>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V2" s="2">
         <f ca="1">NOW()</f>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2195,11 +2195,11 @@
       </c>
       <c r="U3" s="2">
         <f t="shared" ref="U3:V66" ca="1" si="0">NOW()</f>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2265,11 +2265,11 @@
       </c>
       <c r="U4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2335,11 +2335,11 @@
       </c>
       <c r="U5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2405,11 +2405,11 @@
       </c>
       <c r="U6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2475,11 +2475,11 @@
       </c>
       <c r="U7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2545,11 +2545,11 @@
       </c>
       <c r="U8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2615,11 +2615,11 @@
       </c>
       <c r="U9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="U10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2755,11 +2755,11 @@
       </c>
       <c r="U11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2825,11 +2825,11 @@
       </c>
       <c r="U12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2895,11 +2895,11 @@
       </c>
       <c r="U13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -2965,11 +2965,11 @@
       </c>
       <c r="U14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -3035,11 +3035,11 @@
       </c>
       <c r="U15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -3105,11 +3105,11 @@
       </c>
       <c r="U16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="U17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -3245,11 +3245,11 @@
       </c>
       <c r="U18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -3315,11 +3315,11 @@
       </c>
       <c r="U19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -3385,11 +3385,11 @@
       </c>
       <c r="U20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -3455,11 +3455,11 @@
       </c>
       <c r="U21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -3525,11 +3525,11 @@
       </c>
       <c r="U22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -3595,11 +3595,11 @@
       </c>
       <c r="U23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -3665,11 +3665,11 @@
       </c>
       <c r="U24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -3735,11 +3735,11 @@
       </c>
       <c r="U25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="U26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -3875,11 +3875,11 @@
       </c>
       <c r="U27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -3945,11 +3945,11 @@
       </c>
       <c r="U28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -4015,11 +4015,11 @@
       </c>
       <c r="U29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="U30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -4155,11 +4155,11 @@
       </c>
       <c r="U31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -4225,11 +4225,11 @@
       </c>
       <c r="U32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -4295,11 +4295,11 @@
       </c>
       <c r="U33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -4365,11 +4365,11 @@
       </c>
       <c r="U34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -4435,11 +4435,11 @@
       </c>
       <c r="U35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -4505,11 +4505,11 @@
       </c>
       <c r="U36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -4575,11 +4575,11 @@
       </c>
       <c r="U37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -4645,11 +4645,11 @@
       </c>
       <c r="U38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -4715,11 +4715,11 @@
       </c>
       <c r="U39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -4785,11 +4785,11 @@
       </c>
       <c r="U40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="U41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -4925,11 +4925,11 @@
       </c>
       <c r="U42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -4995,11 +4995,11 @@
       </c>
       <c r="U43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -5065,11 +5065,11 @@
       </c>
       <c r="U44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -5135,11 +5135,11 @@
       </c>
       <c r="U45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -5205,11 +5205,11 @@
       </c>
       <c r="U46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -5275,11 +5275,11 @@
       </c>
       <c r="U47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -5345,11 +5345,11 @@
       </c>
       <c r="U48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -5415,11 +5415,11 @@
       </c>
       <c r="U49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -5485,11 +5485,11 @@
       </c>
       <c r="U50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -5555,11 +5555,11 @@
       </c>
       <c r="U51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -5625,11 +5625,11 @@
       </c>
       <c r="U52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -5695,11 +5695,11 @@
       </c>
       <c r="U53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -5765,11 +5765,11 @@
       </c>
       <c r="U54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -5835,11 +5835,11 @@
       </c>
       <c r="U55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -5905,11 +5905,11 @@
       </c>
       <c r="U56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -5975,11 +5975,11 @@
       </c>
       <c r="U57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -6045,11 +6045,11 @@
       </c>
       <c r="U58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -6115,11 +6115,11 @@
       </c>
       <c r="U59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -6185,11 +6185,11 @@
       </c>
       <c r="U60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -6255,11 +6255,11 @@
       </c>
       <c r="U61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -6325,11 +6325,11 @@
       </c>
       <c r="U62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -6395,11 +6395,11 @@
       </c>
       <c r="U63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -6465,11 +6465,11 @@
       </c>
       <c r="U64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="U65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -6605,11 +6605,11 @@
       </c>
       <c r="U66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -6675,11 +6675,11 @@
       </c>
       <c r="U67" s="2">
         <f t="shared" ref="U67:V105" ca="1" si="1">NOW()</f>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -6745,11 +6745,11 @@
       </c>
       <c r="U68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -6777,8 +6777,8 @@
       <c r="H69" s="1">
         <v>42370</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>350</v>
+      <c r="I69" s="1">
+        <v>43100</v>
       </c>
       <c r="J69" t="s">
         <v>350</v>
@@ -6815,11 +6815,11 @@
       </c>
       <c r="U69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -6885,11 +6885,11 @@
       </c>
       <c r="U70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -6955,11 +6955,11 @@
       </c>
       <c r="U71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -7025,11 +7025,11 @@
       </c>
       <c r="U72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -7095,11 +7095,11 @@
       </c>
       <c r="U73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -7165,11 +7165,11 @@
       </c>
       <c r="U74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -7235,11 +7235,11 @@
       </c>
       <c r="U75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -7305,11 +7305,11 @@
       </c>
       <c r="U76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -7375,11 +7375,11 @@
       </c>
       <c r="U77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -7445,11 +7445,11 @@
       </c>
       <c r="U78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -7515,11 +7515,11 @@
       </c>
       <c r="U79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -7585,11 +7585,11 @@
       </c>
       <c r="U80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -7655,11 +7655,11 @@
       </c>
       <c r="U81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -7725,11 +7725,11 @@
       </c>
       <c r="U82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -7795,11 +7795,11 @@
       </c>
       <c r="U83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -7865,11 +7865,11 @@
       </c>
       <c r="U84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -7935,11 +7935,11 @@
       </c>
       <c r="U85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -8005,11 +8005,11 @@
       </c>
       <c r="U86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -8075,11 +8075,11 @@
       </c>
       <c r="U87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
@@ -8145,11 +8145,11 @@
       </c>
       <c r="U88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="U89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -8285,11 +8285,11 @@
       </c>
       <c r="U90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
@@ -8355,11 +8355,11 @@
       </c>
       <c r="U91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="U92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
@@ -8495,11 +8495,11 @@
       </c>
       <c r="U93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
@@ -8565,11 +8565,11 @@
       </c>
       <c r="U94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
@@ -8635,11 +8635,11 @@
       </c>
       <c r="U95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -8705,11 +8705,11 @@
       </c>
       <c r="U96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -8775,11 +8775,11 @@
       </c>
       <c r="U97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
@@ -8845,11 +8845,11 @@
       </c>
       <c r="U98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -8915,11 +8915,11 @@
       </c>
       <c r="U99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
@@ -8985,11 +8985,11 @@
       </c>
       <c r="U100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
@@ -9055,11 +9055,11 @@
       </c>
       <c r="U101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
@@ -9125,11 +9125,11 @@
       </c>
       <c r="U102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -9195,11 +9195,11 @@
       </c>
       <c r="U103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -9265,11 +9265,11 @@
       </c>
       <c r="U104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -9335,11 +9335,11 @@
       </c>
       <c r="U105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
       <c r="V105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43129.685524768516</v>
+        <v>43130.902735648146</v>
       </c>
     </row>
   </sheetData>
